--- a/Code/Results/Cases/Case_0_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_57/res_line/pl_mw.xlsx
@@ -415,22 +415,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.248500900131333</v>
+        <v>0.2485009001304235</v>
       </c>
       <c r="D2">
-        <v>1.863810527012106</v>
+        <v>1.863810527011992</v>
       </c>
       <c r="E2">
-        <v>0.6406470165896891</v>
+        <v>0.6406470165896323</v>
       </c>
       <c r="F2">
-        <v>23.7521185986904</v>
+        <v>23.75211859869017</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>19.38170048422592</v>
+        <v>19.38170048422575</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.72956974701615</v>
+        <v>0.729569747016086</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1816748213491906</v>
+        <v>0.1816748213500574</v>
       </c>
       <c r="D3">
-        <v>1.355926978322174</v>
+        <v>1.355926978321605</v>
       </c>
       <c r="E3">
-        <v>0.4629954244534318</v>
+        <v>0.4629954244534389</v>
       </c>
       <c r="F3">
-        <v>17.48569070709868</v>
+        <v>17.48569070709874</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>14.25611566287412</v>
+        <v>14.25611566287415</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5281728802935461</v>
+        <v>0.5281728802934964</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,22 +491,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1536725219749542</v>
+        <v>0.1536725219745136</v>
       </c>
       <c r="D4">
-        <v>1.145291092524843</v>
+        <v>1.145291092524985</v>
       </c>
       <c r="E4">
-        <v>0.3900481399940361</v>
+        <v>0.3900481399939437</v>
       </c>
       <c r="F4">
-        <v>14.841856348249</v>
+        <v>14.84185634824939</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>12.09677027418209</v>
+        <v>12.09677027418249</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4451972396898753</v>
+        <v>0.445197239689854</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1436523269331786</v>
+        <v>0.1436523269330507</v>
       </c>
       <c r="D5">
-        <v>1.070237704313996</v>
+        <v>1.070237704313939</v>
       </c>
       <c r="E5">
-        <v>0.3641454504719235</v>
+        <v>0.3641454504719945</v>
       </c>
       <c r="F5">
         <v>13.89432416420163</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11.32327498636414</v>
+        <v>11.32327498636425</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4156956414474848</v>
+        <v>0.415695641447499</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,22 +567,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1420502592373083</v>
+        <v>0.1420502592372941</v>
       </c>
       <c r="D6">
-        <v>1.058253878271159</v>
+        <v>1.058253878270989</v>
       </c>
       <c r="E6">
         <v>0.360013720342522</v>
       </c>
       <c r="F6">
-        <v>13.74277896792728</v>
+        <v>13.74277896792734</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11.1995834124277</v>
+        <v>11.19958341242778</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4109880011603622</v>
+        <v>0.4109880011603551</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,22 +605,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1535328538745233</v>
+        <v>0.1535328538750775</v>
       </c>
       <c r="D7">
-        <v>1.144243773328014</v>
+        <v>1.144243773328071</v>
       </c>
       <c r="E7">
-        <v>0.3896863717018277</v>
+        <v>0.3896863717018562</v>
       </c>
       <c r="F7">
-        <v>14.82865322325989</v>
+        <v>14.82865322325949</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12.08599081472062</v>
+        <v>12.08599081472033</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4447853447633321</v>
+        <v>0.4447853447633392</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2204068566362594</v>
+        <v>0.2204068566366004</v>
       </c>
       <c r="D8">
-        <v>1.649394150662147</v>
+        <v>1.649394150662488</v>
       </c>
       <c r="E8">
-        <v>0.5653128474941482</v>
+        <v>0.5653128474941767</v>
       </c>
       <c r="F8">
-        <v>21.12702728926553</v>
+        <v>21.12702728926564</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17.23311932695609</v>
+        <v>17.23311932695617</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6442871159861312</v>
+        <v>0.6442871159861596</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2204068566362594</v>
+        <v>0.2204068566366004</v>
       </c>
       <c r="D9">
-        <v>1.649394150662147</v>
+        <v>1.649394150662488</v>
       </c>
       <c r="E9">
-        <v>0.5653128474941482</v>
+        <v>0.5653128474941767</v>
       </c>
       <c r="F9">
-        <v>21.12702728926553</v>
+        <v>21.12702728926564</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17.23311932695609</v>
+        <v>17.23311932695617</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6442871159861312</v>
+        <v>0.6442871159861596</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2204068566362594</v>
+        <v>0.2204068566366004</v>
       </c>
       <c r="D10">
-        <v>1.649394150662147</v>
+        <v>1.649394150662488</v>
       </c>
       <c r="E10">
-        <v>0.5653128474941482</v>
+        <v>0.5653128474941767</v>
       </c>
       <c r="F10">
-        <v>21.12702728926553</v>
+        <v>21.12702728926564</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17.23311932695609</v>
+        <v>17.23311932695617</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6442871159861312</v>
+        <v>0.6442871159861596</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2204068566362594</v>
+        <v>0.2204068566366004</v>
       </c>
       <c r="D11">
-        <v>1.649394150662147</v>
+        <v>1.649394150662488</v>
       </c>
       <c r="E11">
-        <v>0.5653128474941482</v>
+        <v>0.5653128474941767</v>
       </c>
       <c r="F11">
-        <v>21.12702728926553</v>
+        <v>21.12702728926564</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17.23311932695609</v>
+        <v>17.23311932695617</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6442871159861312</v>
+        <v>0.6442871159861596</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2204068566362594</v>
+        <v>0.2204068566366004</v>
       </c>
       <c r="D12">
-        <v>1.649394150662147</v>
+        <v>1.649394150662488</v>
       </c>
       <c r="E12">
-        <v>0.5653128474941482</v>
+        <v>0.5653128474941767</v>
       </c>
       <c r="F12">
-        <v>21.12702728926553</v>
+        <v>21.12702728926564</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17.23311932695609</v>
+        <v>17.23311932695617</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6442871159861312</v>
+        <v>0.6442871159861596</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2204068566362594</v>
+        <v>0.2204068566366004</v>
       </c>
       <c r="D13">
-        <v>1.649394150662147</v>
+        <v>1.649394150662488</v>
       </c>
       <c r="E13">
-        <v>0.5653128474941482</v>
+        <v>0.5653128474941767</v>
       </c>
       <c r="F13">
-        <v>21.12702728926553</v>
+        <v>21.12702728926564</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17.23311932695609</v>
+        <v>17.23311932695617</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6442871159861312</v>
+        <v>0.6442871159861596</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2204068566362594</v>
+        <v>0.2204068566366004</v>
       </c>
       <c r="D14">
-        <v>1.649394150662147</v>
+        <v>1.649394150662488</v>
       </c>
       <c r="E14">
-        <v>0.5653128474941482</v>
+        <v>0.5653128474941767</v>
       </c>
       <c r="F14">
-        <v>21.12702728926553</v>
+        <v>21.12702728926564</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17.23311932695609</v>
+        <v>17.23311932695617</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6442871159861312</v>
+        <v>0.6442871159861596</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2204068566362594</v>
+        <v>0.2204068566366004</v>
       </c>
       <c r="D15">
-        <v>1.649394150662147</v>
+        <v>1.649394150662488</v>
       </c>
       <c r="E15">
-        <v>0.5653128474941482</v>
+        <v>0.5653128474941767</v>
       </c>
       <c r="F15">
-        <v>21.12702728926553</v>
+        <v>21.12702728926564</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17.23311932695609</v>
+        <v>17.23311932695617</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6442871159861312</v>
+        <v>0.6442871159861596</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2204068566362594</v>
+        <v>0.2204068566366004</v>
       </c>
       <c r="D16">
-        <v>1.649394150662147</v>
+        <v>1.649394150662488</v>
       </c>
       <c r="E16">
-        <v>0.5653128474941482</v>
+        <v>0.5653128474941767</v>
       </c>
       <c r="F16">
-        <v>21.12702728926553</v>
+        <v>21.12702728926564</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17.23311932695609</v>
+        <v>17.23311932695617</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6442871159861312</v>
+        <v>0.6442871159861596</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2204068566362594</v>
+        <v>0.2204068566366004</v>
       </c>
       <c r="D17">
-        <v>1.649394150662147</v>
+        <v>1.649394150662488</v>
       </c>
       <c r="E17">
-        <v>0.5653128474941482</v>
+        <v>0.5653128474941767</v>
       </c>
       <c r="F17">
-        <v>21.12702728926553</v>
+        <v>21.12702728926564</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17.23311932695609</v>
+        <v>17.23311932695617</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6442871159861312</v>
+        <v>0.6442871159861596</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2204068566362594</v>
+        <v>0.2204068566366004</v>
       </c>
       <c r="D18">
-        <v>1.649394150662147</v>
+        <v>1.649394150662488</v>
       </c>
       <c r="E18">
-        <v>0.5653128474941482</v>
+        <v>0.5653128474941767</v>
       </c>
       <c r="F18">
-        <v>21.12702728926553</v>
+        <v>21.12702728926564</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>17.23311932695609</v>
+        <v>17.23311932695617</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6442871159861312</v>
+        <v>0.6442871159861596</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2204068566362594</v>
+        <v>0.2204068566366004</v>
       </c>
       <c r="D19">
-        <v>1.649394150662147</v>
+        <v>1.649394150662488</v>
       </c>
       <c r="E19">
-        <v>0.5653128474941482</v>
+        <v>0.5653128474941767</v>
       </c>
       <c r="F19">
-        <v>21.12702728926553</v>
+        <v>21.12702728926564</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>17.23311932695609</v>
+        <v>17.23311932695617</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6442871159861312</v>
+        <v>0.6442871159861596</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2204068566362594</v>
+        <v>0.2204068566366004</v>
       </c>
       <c r="D20">
-        <v>1.649394150662147</v>
+        <v>1.649394150662488</v>
       </c>
       <c r="E20">
-        <v>0.5653128474941482</v>
+        <v>0.5653128474941767</v>
       </c>
       <c r="F20">
-        <v>21.12702728926553</v>
+        <v>21.12702728926564</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>17.23311932695609</v>
+        <v>17.23311932695617</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6442871159861312</v>
+        <v>0.6442871159861596</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2204068566362594</v>
+        <v>0.2204068566366004</v>
       </c>
       <c r="D21">
-        <v>1.649394150662147</v>
+        <v>1.649394150662488</v>
       </c>
       <c r="E21">
-        <v>0.5653128474941482</v>
+        <v>0.5653128474941767</v>
       </c>
       <c r="F21">
-        <v>21.12702728926553</v>
+        <v>21.12702728926564</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17.23311932695609</v>
+        <v>17.23311932695617</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6442871159861312</v>
+        <v>0.6442871159861596</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2204068566362594</v>
+        <v>0.2204068566366004</v>
       </c>
       <c r="D22">
-        <v>1.649394150662147</v>
+        <v>1.649394150662488</v>
       </c>
       <c r="E22">
-        <v>0.5653128474941482</v>
+        <v>0.5653128474941767</v>
       </c>
       <c r="F22">
-        <v>21.12702728926553</v>
+        <v>21.12702728926564</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17.23311932695609</v>
+        <v>17.23311932695617</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6442871159861312</v>
+        <v>0.6442871159861596</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2204068566362594</v>
+        <v>0.2204068566366004</v>
       </c>
       <c r="D23">
-        <v>1.649394150662147</v>
+        <v>1.649394150662488</v>
       </c>
       <c r="E23">
-        <v>0.5653128474941482</v>
+        <v>0.5653128474941767</v>
       </c>
       <c r="F23">
-        <v>21.12702728926553</v>
+        <v>21.12702728926564</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17.23311932695609</v>
+        <v>17.23311932695617</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6442871159861312</v>
+        <v>0.6442871159861596</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2204068566362594</v>
+        <v>0.2204068566366004</v>
       </c>
       <c r="D24">
-        <v>1.649394150662147</v>
+        <v>1.649394150662488</v>
       </c>
       <c r="E24">
-        <v>0.5653128474941482</v>
+        <v>0.5653128474941767</v>
       </c>
       <c r="F24">
-        <v>21.12702728926553</v>
+        <v>21.12702728926564</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>17.23311932695609</v>
+        <v>17.23311932695617</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6442871159861312</v>
+        <v>0.6442871159861596</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2204068566362594</v>
+        <v>0.2204068566366004</v>
       </c>
       <c r="D25">
-        <v>1.649394150662147</v>
+        <v>1.649394150662488</v>
       </c>
       <c r="E25">
-        <v>0.5653128474941482</v>
+        <v>0.5653128474941767</v>
       </c>
       <c r="F25">
-        <v>21.12702728926553</v>
+        <v>21.12702728926564</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17.23311932695609</v>
+        <v>17.23311932695617</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6442871159861312</v>
+        <v>0.6442871159861596</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_57/res_line/pl_mw.xlsx
@@ -415,22 +415,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2485009001304235</v>
+        <v>0.248500900131333</v>
       </c>
       <c r="D2">
-        <v>1.863810527011992</v>
+        <v>1.863810527012106</v>
       </c>
       <c r="E2">
-        <v>0.6406470165896323</v>
+        <v>0.6406470165896891</v>
       </c>
       <c r="F2">
-        <v>23.75211859869017</v>
+        <v>23.7521185986904</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>19.38170048422575</v>
+        <v>19.38170048422592</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.729569747016086</v>
+        <v>0.72956974701615</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1816748213500574</v>
+        <v>0.1816748213491906</v>
       </c>
       <c r="D3">
-        <v>1.355926978321605</v>
+        <v>1.355926978322174</v>
       </c>
       <c r="E3">
-        <v>0.4629954244534389</v>
+        <v>0.4629954244534318</v>
       </c>
       <c r="F3">
-        <v>17.48569070709874</v>
+        <v>17.48569070709868</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>14.25611566287415</v>
+        <v>14.25611566287412</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5281728802934964</v>
+        <v>0.5281728802935461</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,22 +491,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1536725219745136</v>
+        <v>0.1536725219749542</v>
       </c>
       <c r="D4">
-        <v>1.145291092524985</v>
+        <v>1.145291092524843</v>
       </c>
       <c r="E4">
-        <v>0.3900481399939437</v>
+        <v>0.3900481399940361</v>
       </c>
       <c r="F4">
-        <v>14.84185634824939</v>
+        <v>14.841856348249</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>12.09677027418249</v>
+        <v>12.09677027418209</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.445197239689854</v>
+        <v>0.4451972396898753</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1436523269330507</v>
+        <v>0.1436523269331786</v>
       </c>
       <c r="D5">
-        <v>1.070237704313939</v>
+        <v>1.070237704313996</v>
       </c>
       <c r="E5">
-        <v>0.3641454504719945</v>
+        <v>0.3641454504719235</v>
       </c>
       <c r="F5">
         <v>13.89432416420163</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11.32327498636425</v>
+        <v>11.32327498636414</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.415695641447499</v>
+        <v>0.4156956414474848</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,22 +567,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1420502592372941</v>
+        <v>0.1420502592373083</v>
       </c>
       <c r="D6">
-        <v>1.058253878270989</v>
+        <v>1.058253878271159</v>
       </c>
       <c r="E6">
         <v>0.360013720342522</v>
       </c>
       <c r="F6">
-        <v>13.74277896792734</v>
+        <v>13.74277896792728</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11.19958341242778</v>
+        <v>11.1995834124277</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4109880011603551</v>
+        <v>0.4109880011603622</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,22 +605,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1535328538750775</v>
+        <v>0.1535328538745233</v>
       </c>
       <c r="D7">
-        <v>1.144243773328071</v>
+        <v>1.144243773328014</v>
       </c>
       <c r="E7">
-        <v>0.3896863717018562</v>
+        <v>0.3896863717018277</v>
       </c>
       <c r="F7">
-        <v>14.82865322325949</v>
+        <v>14.82865322325989</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12.08599081472033</v>
+        <v>12.08599081472062</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4447853447633392</v>
+        <v>0.4447853447633321</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2204068566366004</v>
+        <v>0.2204068566362594</v>
       </c>
       <c r="D8">
-        <v>1.649394150662488</v>
+        <v>1.649394150662147</v>
       </c>
       <c r="E8">
-        <v>0.5653128474941767</v>
+        <v>0.5653128474941482</v>
       </c>
       <c r="F8">
-        <v>21.12702728926564</v>
+        <v>21.12702728926553</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17.23311932695617</v>
+        <v>17.23311932695609</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6442871159861596</v>
+        <v>0.6442871159861312</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2204068566366004</v>
+        <v>0.2204068566362594</v>
       </c>
       <c r="D9">
-        <v>1.649394150662488</v>
+        <v>1.649394150662147</v>
       </c>
       <c r="E9">
-        <v>0.5653128474941767</v>
+        <v>0.5653128474941482</v>
       </c>
       <c r="F9">
-        <v>21.12702728926564</v>
+        <v>21.12702728926553</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17.23311932695617</v>
+        <v>17.23311932695609</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6442871159861596</v>
+        <v>0.6442871159861312</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2204068566366004</v>
+        <v>0.2204068566362594</v>
       </c>
       <c r="D10">
-        <v>1.649394150662488</v>
+        <v>1.649394150662147</v>
       </c>
       <c r="E10">
-        <v>0.5653128474941767</v>
+        <v>0.5653128474941482</v>
       </c>
       <c r="F10">
-        <v>21.12702728926564</v>
+        <v>21.12702728926553</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17.23311932695617</v>
+        <v>17.23311932695609</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6442871159861596</v>
+        <v>0.6442871159861312</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2204068566366004</v>
+        <v>0.2204068566362594</v>
       </c>
       <c r="D11">
-        <v>1.649394150662488</v>
+        <v>1.649394150662147</v>
       </c>
       <c r="E11">
-        <v>0.5653128474941767</v>
+        <v>0.5653128474941482</v>
       </c>
       <c r="F11">
-        <v>21.12702728926564</v>
+        <v>21.12702728926553</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17.23311932695617</v>
+        <v>17.23311932695609</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6442871159861596</v>
+        <v>0.6442871159861312</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2204068566366004</v>
+        <v>0.2204068566362594</v>
       </c>
       <c r="D12">
-        <v>1.649394150662488</v>
+        <v>1.649394150662147</v>
       </c>
       <c r="E12">
-        <v>0.5653128474941767</v>
+        <v>0.5653128474941482</v>
       </c>
       <c r="F12">
-        <v>21.12702728926564</v>
+        <v>21.12702728926553</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17.23311932695617</v>
+        <v>17.23311932695609</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6442871159861596</v>
+        <v>0.6442871159861312</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2204068566366004</v>
+        <v>0.2204068566362594</v>
       </c>
       <c r="D13">
-        <v>1.649394150662488</v>
+        <v>1.649394150662147</v>
       </c>
       <c r="E13">
-        <v>0.5653128474941767</v>
+        <v>0.5653128474941482</v>
       </c>
       <c r="F13">
-        <v>21.12702728926564</v>
+        <v>21.12702728926553</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17.23311932695617</v>
+        <v>17.23311932695609</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6442871159861596</v>
+        <v>0.6442871159861312</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2204068566366004</v>
+        <v>0.2204068566362594</v>
       </c>
       <c r="D14">
-        <v>1.649394150662488</v>
+        <v>1.649394150662147</v>
       </c>
       <c r="E14">
-        <v>0.5653128474941767</v>
+        <v>0.5653128474941482</v>
       </c>
       <c r="F14">
-        <v>21.12702728926564</v>
+        <v>21.12702728926553</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17.23311932695617</v>
+        <v>17.23311932695609</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6442871159861596</v>
+        <v>0.6442871159861312</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2204068566366004</v>
+        <v>0.2204068566362594</v>
       </c>
       <c r="D15">
-        <v>1.649394150662488</v>
+        <v>1.649394150662147</v>
       </c>
       <c r="E15">
-        <v>0.5653128474941767</v>
+        <v>0.5653128474941482</v>
       </c>
       <c r="F15">
-        <v>21.12702728926564</v>
+        <v>21.12702728926553</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17.23311932695617</v>
+        <v>17.23311932695609</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6442871159861596</v>
+        <v>0.6442871159861312</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2204068566366004</v>
+        <v>0.2204068566362594</v>
       </c>
       <c r="D16">
-        <v>1.649394150662488</v>
+        <v>1.649394150662147</v>
       </c>
       <c r="E16">
-        <v>0.5653128474941767</v>
+        <v>0.5653128474941482</v>
       </c>
       <c r="F16">
-        <v>21.12702728926564</v>
+        <v>21.12702728926553</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17.23311932695617</v>
+        <v>17.23311932695609</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6442871159861596</v>
+        <v>0.6442871159861312</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2204068566366004</v>
+        <v>0.2204068566362594</v>
       </c>
       <c r="D17">
-        <v>1.649394150662488</v>
+        <v>1.649394150662147</v>
       </c>
       <c r="E17">
-        <v>0.5653128474941767</v>
+        <v>0.5653128474941482</v>
       </c>
       <c r="F17">
-        <v>21.12702728926564</v>
+        <v>21.12702728926553</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17.23311932695617</v>
+        <v>17.23311932695609</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6442871159861596</v>
+        <v>0.6442871159861312</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2204068566366004</v>
+        <v>0.2204068566362594</v>
       </c>
       <c r="D18">
-        <v>1.649394150662488</v>
+        <v>1.649394150662147</v>
       </c>
       <c r="E18">
-        <v>0.5653128474941767</v>
+        <v>0.5653128474941482</v>
       </c>
       <c r="F18">
-        <v>21.12702728926564</v>
+        <v>21.12702728926553</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>17.23311932695617</v>
+        <v>17.23311932695609</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6442871159861596</v>
+        <v>0.6442871159861312</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2204068566366004</v>
+        <v>0.2204068566362594</v>
       </c>
       <c r="D19">
-        <v>1.649394150662488</v>
+        <v>1.649394150662147</v>
       </c>
       <c r="E19">
-        <v>0.5653128474941767</v>
+        <v>0.5653128474941482</v>
       </c>
       <c r="F19">
-        <v>21.12702728926564</v>
+        <v>21.12702728926553</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>17.23311932695617</v>
+        <v>17.23311932695609</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6442871159861596</v>
+        <v>0.6442871159861312</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2204068566366004</v>
+        <v>0.2204068566362594</v>
       </c>
       <c r="D20">
-        <v>1.649394150662488</v>
+        <v>1.649394150662147</v>
       </c>
       <c r="E20">
-        <v>0.5653128474941767</v>
+        <v>0.5653128474941482</v>
       </c>
       <c r="F20">
-        <v>21.12702728926564</v>
+        <v>21.12702728926553</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>17.23311932695617</v>
+        <v>17.23311932695609</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6442871159861596</v>
+        <v>0.6442871159861312</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2204068566366004</v>
+        <v>0.2204068566362594</v>
       </c>
       <c r="D21">
-        <v>1.649394150662488</v>
+        <v>1.649394150662147</v>
       </c>
       <c r="E21">
-        <v>0.5653128474941767</v>
+        <v>0.5653128474941482</v>
       </c>
       <c r="F21">
-        <v>21.12702728926564</v>
+        <v>21.12702728926553</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17.23311932695617</v>
+        <v>17.23311932695609</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6442871159861596</v>
+        <v>0.6442871159861312</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2204068566366004</v>
+        <v>0.2204068566362594</v>
       </c>
       <c r="D22">
-        <v>1.649394150662488</v>
+        <v>1.649394150662147</v>
       </c>
       <c r="E22">
-        <v>0.5653128474941767</v>
+        <v>0.5653128474941482</v>
       </c>
       <c r="F22">
-        <v>21.12702728926564</v>
+        <v>21.12702728926553</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17.23311932695617</v>
+        <v>17.23311932695609</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6442871159861596</v>
+        <v>0.6442871159861312</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2204068566366004</v>
+        <v>0.2204068566362594</v>
       </c>
       <c r="D23">
-        <v>1.649394150662488</v>
+        <v>1.649394150662147</v>
       </c>
       <c r="E23">
-        <v>0.5653128474941767</v>
+        <v>0.5653128474941482</v>
       </c>
       <c r="F23">
-        <v>21.12702728926564</v>
+        <v>21.12702728926553</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17.23311932695617</v>
+        <v>17.23311932695609</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6442871159861596</v>
+        <v>0.6442871159861312</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2204068566366004</v>
+        <v>0.2204068566362594</v>
       </c>
       <c r="D24">
-        <v>1.649394150662488</v>
+        <v>1.649394150662147</v>
       </c>
       <c r="E24">
-        <v>0.5653128474941767</v>
+        <v>0.5653128474941482</v>
       </c>
       <c r="F24">
-        <v>21.12702728926564</v>
+        <v>21.12702728926553</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>17.23311932695617</v>
+        <v>17.23311932695609</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6442871159861596</v>
+        <v>0.6442871159861312</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2204068566366004</v>
+        <v>0.2204068566362594</v>
       </c>
       <c r="D25">
-        <v>1.649394150662488</v>
+        <v>1.649394150662147</v>
       </c>
       <c r="E25">
-        <v>0.5653128474941767</v>
+        <v>0.5653128474941482</v>
       </c>
       <c r="F25">
-        <v>21.12702728926564</v>
+        <v>21.12702728926553</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17.23311932695617</v>
+        <v>17.23311932695609</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6442871159861596</v>
+        <v>0.6442871159861312</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.248500900131333</v>
+        <v>0.2395145087323272</v>
       </c>
       <c r="D2">
-        <v>1.863810527012106</v>
+        <v>1.804251787410351</v>
       </c>
       <c r="E2">
-        <v>0.6406470165896891</v>
+        <v>0.6235793651881139</v>
       </c>
       <c r="F2">
-        <v>23.7521185986904</v>
+        <v>23.08899851588609</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0004647139140903021</v>
       </c>
       <c r="H2">
-        <v>19.38170048422592</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>18.83737303861838</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.72956974701615</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.709078834081609</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1816748213491906</v>
+        <v>0.1767429435791996</v>
       </c>
       <c r="D3">
-        <v>1.355926978322174</v>
+        <v>1.326381023171933</v>
       </c>
       <c r="E3">
-        <v>0.4629954244534318</v>
+        <v>0.4554266849075717</v>
       </c>
       <c r="F3">
-        <v>17.48569070709868</v>
+        <v>17.16471869687871</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0005364286389173412</v>
       </c>
       <c r="H3">
-        <v>14.25611566287412</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>13.9928934806214</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5281728802935461</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.5187242055118588</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1536725219749542</v>
+        <v>0.1497977996694004</v>
       </c>
       <c r="D4">
-        <v>1.145291092524843</v>
+        <v>1.123201023339931</v>
       </c>
       <c r="E4">
-        <v>0.3900481399940361</v>
+        <v>0.3845315846080766</v>
       </c>
       <c r="F4">
-        <v>14.841856348249</v>
+        <v>14.60470104519015</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0005702995358859193</v>
       </c>
       <c r="H4">
-        <v>12.09677027418209</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>11.90235210980981</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4451972396898753</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.4382311181195462</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1436523269331786</v>
+        <v>0.1401142494811722</v>
       </c>
       <c r="D5">
-        <v>1.070237704313996</v>
+        <v>1.050473285785273</v>
       </c>
       <c r="E5">
-        <v>0.3641454504719235</v>
+        <v>0.3592275851403386</v>
       </c>
       <c r="F5">
-        <v>13.89432416420163</v>
+        <v>13.68313796472194</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0005830329879418041</v>
       </c>
       <c r="H5">
-        <v>11.32327498636414</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>11.15016687356658</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4156956414474848</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.409468726977984</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1420502592373083</v>
+        <v>0.1385644496697722</v>
       </c>
       <c r="D6">
-        <v>1.058253878271159</v>
+        <v>1.038848230972263</v>
       </c>
       <c r="E6">
-        <v>0.360013720342522</v>
+        <v>0.3551862214498911</v>
       </c>
       <c r="F6">
-        <v>13.74277896792728</v>
+        <v>13.53559026057752</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0005851013798396709</v>
       </c>
       <c r="H6">
-        <v>11.1995834124277</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>11.02975524790602</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4109880011603622</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.4048734310026276</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1535328538745233</v>
+        <v>0.1496629482642646</v>
       </c>
       <c r="D7">
-        <v>1.144243773328014</v>
+        <v>1.122187157036961</v>
       </c>
       <c r="E7">
-        <v>0.3896863717018277</v>
+        <v>0.3841785815001444</v>
       </c>
       <c r="F7">
-        <v>14.82865322325989</v>
+        <v>14.5918721312093</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0005704746766584509</v>
       </c>
       <c r="H7">
-        <v>12.08599081472062</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>11.89187975324549</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4447853447633321</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.4378299864297546</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2204068566362594</v>
+        <v>0.2135310175778926</v>
       </c>
       <c r="D8">
-        <v>1.649394150662147</v>
+        <v>1.605668420940816</v>
       </c>
       <c r="E8">
-        <v>0.5653128474941482</v>
+        <v>0.5534339123122081</v>
       </c>
       <c r="F8">
-        <v>21.12702728926553</v>
+        <v>20.64504076095614</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0004933207344144474</v>
       </c>
       <c r="H8">
-        <v>17.23311932695609</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>16.83764460427628</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6442871159861312</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.6297718294431078</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2204068566362594</v>
+        <v>0.2135310175778926</v>
       </c>
       <c r="D9">
-        <v>1.649394150662147</v>
+        <v>1.605668420940816</v>
       </c>
       <c r="E9">
-        <v>0.5653128474941482</v>
+        <v>0.5534339123122081</v>
       </c>
       <c r="F9">
-        <v>21.12702728926553</v>
+        <v>20.64504076095614</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0004933207344144474</v>
       </c>
       <c r="H9">
-        <v>17.23311932695609</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>16.83764460427628</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6442871159861312</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.6297718294431078</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2204068566362594</v>
+        <v>0.2135310175778926</v>
       </c>
       <c r="D10">
-        <v>1.649394150662147</v>
+        <v>1.605668420940816</v>
       </c>
       <c r="E10">
-        <v>0.5653128474941482</v>
+        <v>0.5534339123122081</v>
       </c>
       <c r="F10">
-        <v>21.12702728926553</v>
+        <v>20.64504076095614</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0004933207344144474</v>
       </c>
       <c r="H10">
-        <v>17.23311932695609</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>16.83764460427628</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6442871159861312</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.6297718294431078</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2204068566362594</v>
+        <v>0.2135310175778926</v>
       </c>
       <c r="D11">
-        <v>1.649394150662147</v>
+        <v>1.605668420940816</v>
       </c>
       <c r="E11">
-        <v>0.5653128474941482</v>
+        <v>0.5534339123122081</v>
       </c>
       <c r="F11">
-        <v>21.12702728926553</v>
+        <v>20.64504076095614</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0004933207344144474</v>
       </c>
       <c r="H11">
-        <v>17.23311932695609</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>16.83764460427628</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6442871159861312</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.6297718294431078</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2204068566362594</v>
+        <v>0.2135310175778926</v>
       </c>
       <c r="D12">
-        <v>1.649394150662147</v>
+        <v>1.605668420940816</v>
       </c>
       <c r="E12">
-        <v>0.5653128474941482</v>
+        <v>0.5534339123122081</v>
       </c>
       <c r="F12">
-        <v>21.12702728926553</v>
+        <v>20.64504076095614</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0004933207344144474</v>
       </c>
       <c r="H12">
-        <v>17.23311932695609</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>16.83764460427628</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6442871159861312</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.6297718294431078</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2204068566362594</v>
+        <v>0.2135310175778926</v>
       </c>
       <c r="D13">
-        <v>1.649394150662147</v>
+        <v>1.605668420940816</v>
       </c>
       <c r="E13">
-        <v>0.5653128474941482</v>
+        <v>0.5534339123122081</v>
       </c>
       <c r="F13">
-        <v>21.12702728926553</v>
+        <v>20.64504076095614</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0004933207344144474</v>
       </c>
       <c r="H13">
-        <v>17.23311932695609</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>16.83764460427628</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6442871159861312</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.6297718294431078</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2204068566362594</v>
+        <v>0.2135310175778926</v>
       </c>
       <c r="D14">
-        <v>1.649394150662147</v>
+        <v>1.605668420940816</v>
       </c>
       <c r="E14">
-        <v>0.5653128474941482</v>
+        <v>0.5534339123122081</v>
       </c>
       <c r="F14">
-        <v>21.12702728926553</v>
+        <v>20.64504076095614</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0004933207344144474</v>
       </c>
       <c r="H14">
-        <v>17.23311932695609</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>16.83764460427628</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6442871159861312</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.6297718294431078</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2204068566362594</v>
+        <v>0.2135310175778926</v>
       </c>
       <c r="D15">
-        <v>1.649394150662147</v>
+        <v>1.605668420940816</v>
       </c>
       <c r="E15">
-        <v>0.5653128474941482</v>
+        <v>0.5534339123122081</v>
       </c>
       <c r="F15">
-        <v>21.12702728926553</v>
+        <v>20.64504076095614</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0004933207344144474</v>
       </c>
       <c r="H15">
-        <v>17.23311932695609</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>16.83764460427628</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6442871159861312</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.6297718294431078</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2204068566362594</v>
+        <v>0.2135310175778926</v>
       </c>
       <c r="D16">
-        <v>1.649394150662147</v>
+        <v>1.605668420940816</v>
       </c>
       <c r="E16">
-        <v>0.5653128474941482</v>
+        <v>0.5534339123122081</v>
       </c>
       <c r="F16">
-        <v>21.12702728926553</v>
+        <v>20.64504076095614</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0004933207344144474</v>
       </c>
       <c r="H16">
-        <v>17.23311932695609</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>16.83764460427628</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6442871159861312</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.6297718294431078</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2204068566362594</v>
+        <v>0.2135310175778926</v>
       </c>
       <c r="D17">
-        <v>1.649394150662147</v>
+        <v>1.605668420940816</v>
       </c>
       <c r="E17">
-        <v>0.5653128474941482</v>
+        <v>0.5534339123122081</v>
       </c>
       <c r="F17">
-        <v>21.12702728926553</v>
+        <v>20.64504076095614</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0004933207344144474</v>
       </c>
       <c r="H17">
-        <v>17.23311932695609</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>16.83764460427628</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6442871159861312</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.6297718294431078</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2204068566362594</v>
+        <v>0.2135310175778926</v>
       </c>
       <c r="D18">
-        <v>1.649394150662147</v>
+        <v>1.605668420940816</v>
       </c>
       <c r="E18">
-        <v>0.5653128474941482</v>
+        <v>0.5534339123122081</v>
       </c>
       <c r="F18">
-        <v>21.12702728926553</v>
+        <v>20.64504076095614</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0004933207344144474</v>
       </c>
       <c r="H18">
-        <v>17.23311932695609</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>16.83764460427628</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6442871159861312</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.6297718294431078</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2204068566362594</v>
+        <v>0.2135310175778926</v>
       </c>
       <c r="D19">
-        <v>1.649394150662147</v>
+        <v>1.605668420940816</v>
       </c>
       <c r="E19">
-        <v>0.5653128474941482</v>
+        <v>0.5534339123122081</v>
       </c>
       <c r="F19">
-        <v>21.12702728926553</v>
+        <v>20.64504076095614</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0004933207344144474</v>
       </c>
       <c r="H19">
-        <v>17.23311932695609</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>16.83764460427628</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6442871159861312</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.6297718294431078</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2204068566362594</v>
+        <v>0.2135310175778926</v>
       </c>
       <c r="D20">
-        <v>1.649394150662147</v>
+        <v>1.605668420940816</v>
       </c>
       <c r="E20">
-        <v>0.5653128474941482</v>
+        <v>0.5534339123122081</v>
       </c>
       <c r="F20">
-        <v>21.12702728926553</v>
+        <v>20.64504076095614</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0004933207344144474</v>
       </c>
       <c r="H20">
-        <v>17.23311932695609</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>16.83764460427628</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6442871159861312</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.6297718294431078</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2204068566362594</v>
+        <v>0.2135310175778926</v>
       </c>
       <c r="D21">
-        <v>1.649394150662147</v>
+        <v>1.605668420940816</v>
       </c>
       <c r="E21">
-        <v>0.5653128474941482</v>
+        <v>0.5534339123122081</v>
       </c>
       <c r="F21">
-        <v>21.12702728926553</v>
+        <v>20.64504076095614</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0004933207344144474</v>
       </c>
       <c r="H21">
-        <v>17.23311932695609</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>16.83764460427628</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6442871159861312</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.6297718294431078</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2204068566362594</v>
+        <v>0.2135310175778926</v>
       </c>
       <c r="D22">
-        <v>1.649394150662147</v>
+        <v>1.605668420940816</v>
       </c>
       <c r="E22">
-        <v>0.5653128474941482</v>
+        <v>0.5534339123122081</v>
       </c>
       <c r="F22">
-        <v>21.12702728926553</v>
+        <v>20.64504076095614</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0004933207344144474</v>
       </c>
       <c r="H22">
-        <v>17.23311932695609</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>16.83764460427628</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6442871159861312</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.6297718294431078</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2204068566362594</v>
+        <v>0.2135310175778926</v>
       </c>
       <c r="D23">
-        <v>1.649394150662147</v>
+        <v>1.605668420940816</v>
       </c>
       <c r="E23">
-        <v>0.5653128474941482</v>
+        <v>0.5534339123122081</v>
       </c>
       <c r="F23">
-        <v>21.12702728926553</v>
+        <v>20.64504076095614</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0004933207344144474</v>
       </c>
       <c r="H23">
-        <v>17.23311932695609</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>16.83764460427628</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6442871159861312</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.6297718294431078</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2204068566362594</v>
+        <v>0.2135310175778926</v>
       </c>
       <c r="D24">
-        <v>1.649394150662147</v>
+        <v>1.605668420940816</v>
       </c>
       <c r="E24">
-        <v>0.5653128474941482</v>
+        <v>0.5534339123122081</v>
       </c>
       <c r="F24">
-        <v>21.12702728926553</v>
+        <v>20.64504076095614</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0004933207344144474</v>
       </c>
       <c r="H24">
-        <v>17.23311932695609</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>16.83764460427628</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6442871159861312</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.6297718294431078</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2204068566362594</v>
+        <v>0.2135310175778926</v>
       </c>
       <c r="D25">
-        <v>1.649394150662147</v>
+        <v>1.605668420940816</v>
       </c>
       <c r="E25">
-        <v>0.5653128474941482</v>
+        <v>0.5534339123122081</v>
       </c>
       <c r="F25">
-        <v>21.12702728926553</v>
+        <v>20.64504076095614</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0004933207344144474</v>
       </c>
       <c r="H25">
-        <v>17.23311932695609</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>16.83764460427628</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6442871159861312</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>0.6297718294431078</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2395145087323272</v>
+        <v>0.253197013466135</v>
       </c>
       <c r="D2">
-        <v>1.804251787410351</v>
+        <v>1.558873863710716</v>
       </c>
       <c r="E2">
-        <v>0.6235793651881139</v>
+        <v>2.706002259735314</v>
       </c>
       <c r="F2">
-        <v>23.08899851588609</v>
+        <v>20.69662561707884</v>
       </c>
       <c r="G2">
-        <v>0.0004647139140903021</v>
+        <v>0.0004647390040342136</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.83737303861838</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>21.70473100981692</v>
       </c>
       <c r="L2">
-        <v>0.709078834081609</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0.3268232122414076</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1767429435791996</v>
+        <v>0.1847782173039434</v>
       </c>
       <c r="D3">
-        <v>1.326381023171933</v>
+        <v>1.073340094328557</v>
       </c>
       <c r="E3">
-        <v>0.4554266849075717</v>
+        <v>1.874643692773361</v>
       </c>
       <c r="F3">
-        <v>17.16471869687871</v>
+        <v>14.68761401991668</v>
       </c>
       <c r="G3">
-        <v>0.0005364286389173412</v>
+        <v>0.0005458421775295383</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.9928934806214</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.06395105780425</v>
       </c>
       <c r="L3">
-        <v>0.5187242055118588</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0.4004778269829359</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1497977996694004</v>
+        <v>0.1567088412719215</v>
       </c>
       <c r="D4">
-        <v>1.123201023339931</v>
+        <v>0.8899868468777754</v>
       </c>
       <c r="E4">
-        <v>0.3845315846080766</v>
+        <v>1.562125100728821</v>
       </c>
       <c r="F4">
-        <v>14.60470104519015</v>
+        <v>12.33165196100049</v>
       </c>
       <c r="G4">
-        <v>0.0005702995358859193</v>
+        <v>0.0005815850085655064</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.90235210980981</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.71950426512728</v>
       </c>
       <c r="L4">
-        <v>0.4382311181195462</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0.4370239742741262</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1401142494811722</v>
+        <v>0.1466579685355782</v>
       </c>
       <c r="D5">
-        <v>1.050473285785273</v>
+        <v>0.8263999237358917</v>
       </c>
       <c r="E5">
-        <v>0.3592275851403386</v>
+        <v>1.453197355825495</v>
       </c>
       <c r="F5">
-        <v>13.68313796472194</v>
+        <v>11.50312896350698</v>
       </c>
       <c r="G5">
-        <v>0.0005830329879418041</v>
+        <v>0.0005948561904596349</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.15016687356658</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.87389897506137</v>
       </c>
       <c r="L5">
-        <v>0.409468726977984</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0.4512658729413559</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1385644496697722</v>
+        <v>0.1450501548441991</v>
       </c>
       <c r="D6">
-        <v>1.038848230972263</v>
+        <v>0.8163279149949858</v>
       </c>
       <c r="E6">
-        <v>0.3551862214498911</v>
+        <v>1.435904304508938</v>
       </c>
       <c r="F6">
-        <v>13.53559026057752</v>
+        <v>11.37133722312183</v>
       </c>
       <c r="G6">
-        <v>0.0005851013798396709</v>
+        <v>0.0005970053113643476</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.02975524790602</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.7382984542227</v>
       </c>
       <c r="L6">
-        <v>0.4048734310026276</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0.4536070924011852</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1496629482642646</v>
+        <v>0.1565687995840079</v>
       </c>
       <c r="D7">
-        <v>1.122187157036961</v>
+        <v>0.8890934622973248</v>
       </c>
       <c r="E7">
-        <v>0.3841785815001444</v>
+        <v>1.560597343019424</v>
       </c>
       <c r="F7">
-        <v>14.5918721312093</v>
+        <v>12.32005298156304</v>
       </c>
       <c r="G7">
-        <v>0.0005704746766584509</v>
+        <v>0.0005817680545036215</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11.89187975324549</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.70774603993976</v>
       </c>
       <c r="L7">
-        <v>0.4378299864297546</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0.4372178992758577</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2135310175778926</v>
+        <v>0.2238606049487117</v>
       </c>
       <c r="D8">
-        <v>1.605668420940816</v>
+        <v>1.343498895712031</v>
       </c>
       <c r="E8">
-        <v>0.5534339123122081</v>
+        <v>2.334906277471049</v>
       </c>
       <c r="F8">
-        <v>20.64504076095614</v>
+        <v>18.0720501354179</v>
       </c>
       <c r="G8">
-        <v>0.0004933207344144474</v>
+        <v>0.0004986615979687614</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.83764460427628</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.29511783595339</v>
       </c>
       <c r="L8">
-        <v>0.6297718294431078</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0.356125496999752</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2135310175778926</v>
+        <v>0.2238606049487117</v>
       </c>
       <c r="D9">
-        <v>1.605668420940816</v>
+        <v>1.343498895712031</v>
       </c>
       <c r="E9">
-        <v>0.5534339123122081</v>
+        <v>2.334906277471049</v>
       </c>
       <c r="F9">
-        <v>20.64504076095614</v>
+        <v>18.0720501354179</v>
       </c>
       <c r="G9">
-        <v>0.0004933207344144474</v>
+        <v>0.0004986615979687614</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.83764460427628</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.29511783595339</v>
       </c>
       <c r="L9">
-        <v>0.6297718294431078</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0.356125496999752</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2135310175778926</v>
+        <v>0.2238606049487117</v>
       </c>
       <c r="D10">
-        <v>1.605668420940816</v>
+        <v>1.343498895712031</v>
       </c>
       <c r="E10">
-        <v>0.5534339123122081</v>
+        <v>2.334906277471049</v>
       </c>
       <c r="F10">
-        <v>20.64504076095614</v>
+        <v>18.0720501354179</v>
       </c>
       <c r="G10">
-        <v>0.0004933207344144474</v>
+        <v>0.0004986615979687614</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.83764460427628</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.29511783595339</v>
       </c>
       <c r="L10">
-        <v>0.6297718294431078</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0.356125496999752</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2135310175778926</v>
+        <v>0.2238606049487117</v>
       </c>
       <c r="D11">
-        <v>1.605668420940816</v>
+        <v>1.343498895712031</v>
       </c>
       <c r="E11">
-        <v>0.5534339123122081</v>
+        <v>2.334906277471049</v>
       </c>
       <c r="F11">
-        <v>20.64504076095614</v>
+        <v>18.0720501354179</v>
       </c>
       <c r="G11">
-        <v>0.0004933207344144474</v>
+        <v>0.0004986615979687614</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.83764460427628</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>19.29511783595339</v>
       </c>
       <c r="L11">
-        <v>0.6297718294431078</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0.356125496999752</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2135310175778926</v>
+        <v>0.2238606049487117</v>
       </c>
       <c r="D12">
-        <v>1.605668420940816</v>
+        <v>1.343498895712031</v>
       </c>
       <c r="E12">
-        <v>0.5534339123122081</v>
+        <v>2.334906277471049</v>
       </c>
       <c r="F12">
-        <v>20.64504076095614</v>
+        <v>18.0720501354179</v>
       </c>
       <c r="G12">
-        <v>0.0004933207344144474</v>
+        <v>0.0004986615979687614</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.83764460427628</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>19.29511783595339</v>
       </c>
       <c r="L12">
-        <v>0.6297718294431078</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0.356125496999752</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2135310175778926</v>
+        <v>0.2238606049487117</v>
       </c>
       <c r="D13">
-        <v>1.605668420940816</v>
+        <v>1.343498895712031</v>
       </c>
       <c r="E13">
-        <v>0.5534339123122081</v>
+        <v>2.334906277471049</v>
       </c>
       <c r="F13">
-        <v>20.64504076095614</v>
+        <v>18.0720501354179</v>
       </c>
       <c r="G13">
-        <v>0.0004933207344144474</v>
+        <v>0.0004986615979687614</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.83764460427628</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>19.29511783595339</v>
       </c>
       <c r="L13">
-        <v>0.6297718294431078</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0.356125496999752</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2135310175778926</v>
+        <v>0.2238606049487117</v>
       </c>
       <c r="D14">
-        <v>1.605668420940816</v>
+        <v>1.343498895712031</v>
       </c>
       <c r="E14">
-        <v>0.5534339123122081</v>
+        <v>2.334906277471049</v>
       </c>
       <c r="F14">
-        <v>20.64504076095614</v>
+        <v>18.0720501354179</v>
       </c>
       <c r="G14">
-        <v>0.0004933207344144474</v>
+        <v>0.0004986615979687614</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.83764460427628</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>19.29511783595339</v>
       </c>
       <c r="L14">
-        <v>0.6297718294431078</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0.356125496999752</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2135310175778926</v>
+        <v>0.2238606049487117</v>
       </c>
       <c r="D15">
-        <v>1.605668420940816</v>
+        <v>1.343498895712031</v>
       </c>
       <c r="E15">
-        <v>0.5534339123122081</v>
+        <v>2.334906277471049</v>
       </c>
       <c r="F15">
-        <v>20.64504076095614</v>
+        <v>18.0720501354179</v>
       </c>
       <c r="G15">
-        <v>0.0004933207344144474</v>
+        <v>0.0004986615979687614</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.83764460427628</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>19.29511783595339</v>
       </c>
       <c r="L15">
-        <v>0.6297718294431078</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0.356125496999752</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2135310175778926</v>
+        <v>0.2238606049487117</v>
       </c>
       <c r="D16">
-        <v>1.605668420940816</v>
+        <v>1.343498895712031</v>
       </c>
       <c r="E16">
-        <v>0.5534339123122081</v>
+        <v>2.334906277471049</v>
       </c>
       <c r="F16">
-        <v>20.64504076095614</v>
+        <v>18.0720501354179</v>
       </c>
       <c r="G16">
-        <v>0.0004933207344144474</v>
+        <v>0.0004986615979687614</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.83764460427628</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>19.29511783595339</v>
       </c>
       <c r="L16">
-        <v>0.6297718294431078</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0.356125496999752</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2135310175778926</v>
+        <v>0.2238606049487117</v>
       </c>
       <c r="D17">
-        <v>1.605668420940816</v>
+        <v>1.343498895712031</v>
       </c>
       <c r="E17">
-        <v>0.5534339123122081</v>
+        <v>2.334906277471049</v>
       </c>
       <c r="F17">
-        <v>20.64504076095614</v>
+        <v>18.0720501354179</v>
       </c>
       <c r="G17">
-        <v>0.0004933207344144474</v>
+        <v>0.0004986615979687614</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.83764460427628</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.29511783595339</v>
       </c>
       <c r="L17">
-        <v>0.6297718294431078</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0.356125496999752</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2135310175778926</v>
+        <v>0.2238606049487117</v>
       </c>
       <c r="D18">
-        <v>1.605668420940816</v>
+        <v>1.343498895712031</v>
       </c>
       <c r="E18">
-        <v>0.5534339123122081</v>
+        <v>2.334906277471049</v>
       </c>
       <c r="F18">
-        <v>20.64504076095614</v>
+        <v>18.0720501354179</v>
       </c>
       <c r="G18">
-        <v>0.0004933207344144474</v>
+        <v>0.0004986615979687614</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.83764460427628</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.29511783595339</v>
       </c>
       <c r="L18">
-        <v>0.6297718294431078</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0.356125496999752</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2135310175778926</v>
+        <v>0.2238606049487117</v>
       </c>
       <c r="D19">
-        <v>1.605668420940816</v>
+        <v>1.343498895712031</v>
       </c>
       <c r="E19">
-        <v>0.5534339123122081</v>
+        <v>2.334906277471049</v>
       </c>
       <c r="F19">
-        <v>20.64504076095614</v>
+        <v>18.0720501354179</v>
       </c>
       <c r="G19">
-        <v>0.0004933207344144474</v>
+        <v>0.0004986615979687614</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.83764460427628</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>19.29511783595339</v>
       </c>
       <c r="L19">
-        <v>0.6297718294431078</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0.356125496999752</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2135310175778926</v>
+        <v>0.2238606049487117</v>
       </c>
       <c r="D20">
-        <v>1.605668420940816</v>
+        <v>1.343498895712031</v>
       </c>
       <c r="E20">
-        <v>0.5534339123122081</v>
+        <v>2.334906277471049</v>
       </c>
       <c r="F20">
-        <v>20.64504076095614</v>
+        <v>18.0720501354179</v>
       </c>
       <c r="G20">
-        <v>0.0004933207344144474</v>
+        <v>0.0004986615979687614</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.83764460427628</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.29511783595339</v>
       </c>
       <c r="L20">
-        <v>0.6297718294431078</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0.356125496999752</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2135310175778926</v>
+        <v>0.2238606049487117</v>
       </c>
       <c r="D21">
-        <v>1.605668420940816</v>
+        <v>1.343498895712031</v>
       </c>
       <c r="E21">
-        <v>0.5534339123122081</v>
+        <v>2.334906277471049</v>
       </c>
       <c r="F21">
-        <v>20.64504076095614</v>
+        <v>18.0720501354179</v>
       </c>
       <c r="G21">
-        <v>0.0004933207344144474</v>
+        <v>0.0004986615979687614</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.83764460427628</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>19.29511783595339</v>
       </c>
       <c r="L21">
-        <v>0.6297718294431078</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0.356125496999752</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2135310175778926</v>
+        <v>0.2238606049487117</v>
       </c>
       <c r="D22">
-        <v>1.605668420940816</v>
+        <v>1.343498895712031</v>
       </c>
       <c r="E22">
-        <v>0.5534339123122081</v>
+        <v>2.334906277471049</v>
       </c>
       <c r="F22">
-        <v>20.64504076095614</v>
+        <v>18.0720501354179</v>
       </c>
       <c r="G22">
-        <v>0.0004933207344144474</v>
+        <v>0.0004986615979687614</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.83764460427628</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>19.29511783595339</v>
       </c>
       <c r="L22">
-        <v>0.6297718294431078</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0.356125496999752</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2135310175778926</v>
+        <v>0.2238606049487117</v>
       </c>
       <c r="D23">
-        <v>1.605668420940816</v>
+        <v>1.343498895712031</v>
       </c>
       <c r="E23">
-        <v>0.5534339123122081</v>
+        <v>2.334906277471049</v>
       </c>
       <c r="F23">
-        <v>20.64504076095614</v>
+        <v>18.0720501354179</v>
       </c>
       <c r="G23">
-        <v>0.0004933207344144474</v>
+        <v>0.0004986615979687614</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.83764460427628</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>19.29511783595339</v>
       </c>
       <c r="L23">
-        <v>0.6297718294431078</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0.356125496999752</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2135310175778926</v>
+        <v>0.2238606049487117</v>
       </c>
       <c r="D24">
-        <v>1.605668420940816</v>
+        <v>1.343498895712031</v>
       </c>
       <c r="E24">
-        <v>0.5534339123122081</v>
+        <v>2.334906277471049</v>
       </c>
       <c r="F24">
-        <v>20.64504076095614</v>
+        <v>18.0720501354179</v>
       </c>
       <c r="G24">
-        <v>0.0004933207344144474</v>
+        <v>0.0004986615979687614</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.83764460427628</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.29511783595339</v>
       </c>
       <c r="L24">
-        <v>0.6297718294431078</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0.356125496999752</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2135310175778926</v>
+        <v>0.2238606049487117</v>
       </c>
       <c r="D25">
-        <v>1.605668420940816</v>
+        <v>1.343498895712031</v>
       </c>
       <c r="E25">
-        <v>0.5534339123122081</v>
+        <v>2.334906277471049</v>
       </c>
       <c r="F25">
-        <v>20.64504076095614</v>
+        <v>18.0720501354179</v>
       </c>
       <c r="G25">
-        <v>0.0004933207344144474</v>
+        <v>0.0004986615979687614</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.83764460427628</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.29511783595339</v>
       </c>
       <c r="L25">
-        <v>0.6297718294431078</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.356125496999752</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_57/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.05082780869697956</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.587935439119519</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.4337108047709535</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>15.35937103487163</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.002324659823953687</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2.873581687696344</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.04451129091589223</v>
+      </c>
+      <c r="D3">
+        <v>1.394691484861198</v>
+      </c>
+      <c r="E3">
+        <v>0.3720301903174317</v>
+      </c>
+      <c r="F3">
+        <v>13.61668471206468</v>
+      </c>
+      <c r="G3">
+        <v>0.002366128417652519</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>2.562605684679454</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.04075572593484367</v>
+      </c>
+      <c r="D4">
+        <v>1.279982332087172</v>
+      </c>
+      <c r="E4">
+        <v>0.3352636496169481</v>
+      </c>
+      <c r="F4">
+        <v>12.58377525787688</v>
+      </c>
+      <c r="G4">
+        <v>0.002392268614187381</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>2.371325805375761</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.03925220185107037</v>
+      </c>
+      <c r="D5">
+        <v>1.234102596854257</v>
+      </c>
+      <c r="E5">
+        <v>0.3205180953998763</v>
+      </c>
+      <c r="F5">
+        <v>12.17105239551421</v>
+      </c>
+      <c r="G5">
+        <v>0.002403102643539336</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>2.293303068605894</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.03900405910241034</v>
+      </c>
+      <c r="D6">
+        <v>1.226533116351334</v>
+      </c>
+      <c r="E6">
+        <v>0.3180828164070135</v>
+      </c>
+      <c r="F6">
+        <v>12.10298422003763</v>
+      </c>
+      <c r="G6">
+        <v>0.002404912903674683</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>2.280343261403857</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.04073534492189879</v>
+      </c>
+      <c r="D7">
+        <v>1.279360236086291</v>
+      </c>
+      <c r="E7">
+        <v>0.3350638766899294</v>
+      </c>
+      <c r="F7">
+        <v>12.57817735867422</v>
+      </c>
+      <c r="G7">
+        <v>0.002392413976300033</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>2.370273851392596</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.04862184836657946</v>
+      </c>
+      <c r="D8">
+        <v>1.520405846136555</v>
+      </c>
+      <c r="E8">
+        <v>0.4121877556381577</v>
+      </c>
+      <c r="F8">
+        <v>14.75006782143714</v>
+      </c>
+      <c r="G8">
+        <v>0.002338824474108338</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>2.766433886209825</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.06526794889936127</v>
+      </c>
+      <c r="D9">
+        <v>2.030943837409438</v>
+      </c>
+      <c r="E9">
+        <v>0.5743263286454976</v>
+      </c>
+      <c r="F9">
+        <v>19.36239679305129</v>
+      </c>
+      <c r="G9">
+        <v>0.002238546243866837</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>3.540180268007362</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.07855583575553737</v>
+      </c>
+      <c r="D10">
+        <v>2.43987583072078</v>
+      </c>
+      <c r="E10">
+        <v>0.7035939178779387</v>
+      </c>
+      <c r="F10">
+        <v>23.06291354783548</v>
+      </c>
+      <c r="G10">
+        <v>0.002166875801250221</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>4.10623028343673</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.08492423161702334</v>
+      </c>
+      <c r="D11">
+        <v>2.636244627474071</v>
+      </c>
+      <c r="E11">
+        <v>0.7655790472318955</v>
+      </c>
+      <c r="F11">
+        <v>24.84081953837165</v>
+      </c>
+      <c r="G11">
+        <v>0.002134451769391532</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>4.363110593465592</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.08739198378047774</v>
+      </c>
+      <c r="D12">
+        <v>2.712400507406187</v>
+      </c>
+      <c r="E12">
+        <v>0.7896097715712926</v>
+      </c>
+      <c r="F12">
+        <v>25.53041789634528</v>
+      </c>
+      <c r="G12">
+        <v>0.002122173376902679</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>4.460285735713398</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.08685783672437708</v>
+      </c>
+      <c r="D13">
+        <v>2.695913569073241</v>
+      </c>
+      <c r="E13">
+        <v>0.7844076676556</v>
+      </c>
+      <c r="F13">
+        <v>25.38112397652344</v>
+      </c>
+      <c r="G13">
+        <v>0.002124818219668415</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>4.439361943450422</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.08512606721484417</v>
+      </c>
+      <c r="D14">
+        <v>2.642472056480756</v>
+      </c>
+      <c r="E14">
+        <v>0.7675442295744261</v>
+      </c>
+      <c r="F14">
+        <v>24.89720795841527</v>
+      </c>
+      <c r="G14">
+        <v>0.002133441786722004</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>4.371107314139238</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.08407294254283215</v>
+      </c>
+      <c r="D15">
+        <v>2.609981553982266</v>
+      </c>
+      <c r="E15">
+        <v>0.7572909333296138</v>
+      </c>
+      <c r="F15">
+        <v>24.60301472366893</v>
+      </c>
+      <c r="G15">
+        <v>0.002138723103300442</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>4.329286057410116</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.0781469415493774</v>
+      </c>
+      <c r="D16">
+        <v>2.427275797120501</v>
+      </c>
+      <c r="E16">
+        <v>0.6996152313669342</v>
+      </c>
+      <c r="F16">
+        <v>22.94884865281676</v>
+      </c>
+      <c r="G16">
+        <v>0.002168996289406896</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>4.089429168003846</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.07460073068874351</v>
+      </c>
+      <c r="D17">
+        <v>2.318042127617673</v>
+      </c>
+      <c r="E17">
+        <v>0.665113542314046</v>
+      </c>
+      <c r="F17">
+        <v>21.96007946764155</v>
+      </c>
+      <c r="G17">
+        <v>0.002187596850787754</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>3.94211849063862</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.07259083666440347</v>
+      </c>
+      <c r="D18">
+        <v>2.256165884710185</v>
+      </c>
+      <c r="E18">
+        <v>0.6455613947072152</v>
+      </c>
+      <c r="F18">
+        <v>21.40007033883069</v>
+      </c>
+      <c r="G18">
+        <v>0.00219831407063017</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>3.857331695637072</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.07191517339217057</v>
+      </c>
+      <c r="D19">
+        <v>2.235370723326241</v>
+      </c>
+      <c r="E19">
+        <v>0.6389888138068045</v>
+      </c>
+      <c r="F19">
+        <v>21.21188036752392</v>
+      </c>
+      <c r="G19">
+        <v>0.002201946656125305</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>3.828614786364255</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.07497508344540904</v>
+      </c>
+      <c r="D20">
+        <v>2.329569657974616</v>
+      </c>
+      <c r="E20">
+        <v>0.6687553838332292</v>
+      </c>
+      <c r="F20">
+        <v>22.06441644790743</v>
+      </c>
+      <c r="G20">
+        <v>0.002185615029552188</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>3.95780600327754</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.0856331190066868</v>
+      </c>
+      <c r="D21">
+        <v>2.658117643865467</v>
+      </c>
+      <c r="E21">
+        <v>0.7724813725077553</v>
+      </c>
+      <c r="F21">
+        <v>25.03887762737475</v>
+      </c>
+      <c r="G21">
+        <v>0.002130909070323118</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>4.391158149571083</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.0929321504858649</v>
+      </c>
+      <c r="D22">
+        <v>2.883497026066834</v>
+      </c>
+      <c r="E22">
+        <v>0.8435890823421346</v>
+      </c>
+      <c r="F22">
+        <v>27.07982090779524</v>
+      </c>
+      <c r="G22">
+        <v>0.002095139035691269</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>4.67379181795809</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.08900231179812579</v>
+      </c>
+      <c r="D23">
+        <v>2.762114490110662</v>
+      </c>
+      <c r="E23">
+        <v>0.8052951462883442</v>
+      </c>
+      <c r="F23">
+        <v>25.98060131732211</v>
+      </c>
+      <c r="G23">
+        <v>0.002114241604865596</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>4.523002190001307</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.07480574934314177</v>
+      </c>
+      <c r="D24">
+        <v>2.324355206975383</v>
+      </c>
+      <c r="E24">
+        <v>0.6671080321126936</v>
+      </c>
+      <c r="F24">
+        <v>22.01721958779001</v>
+      </c>
+      <c r="G24">
+        <v>0.00218651093625779</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>3.950713976768441</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.06060661490145947</v>
+      </c>
+      <c r="D25">
+        <v>1.88776885282806</v>
+      </c>
+      <c r="E25">
+        <v>0.5289692784241282</v>
+      </c>
+      <c r="F25">
+        <v>18.06777367295706</v>
+      </c>
+      <c r="G25">
+        <v>0.002265246680107371</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>3.331249627311138</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,37 +430,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.03147131394779024</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.02594442245109363</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.339731584508584</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.9692099226271438</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.9076091030881059</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.009624872997204249</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01367947323787577</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5707580584756187</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.753635765821997</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>4.07806704169235</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,120 +468,1230 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.719940341323948</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.0269006778235763</v>
+      </c>
+      <c r="D3">
+        <v>0.02468107580834555</v>
+      </c>
+      <c r="E3">
+        <v>1.164191424197753</v>
+      </c>
+      <c r="F3">
+        <v>0.8774933972598973</v>
+      </c>
+      <c r="G3">
+        <v>0.8193943302796498</v>
+      </c>
+      <c r="H3">
+        <v>0.006453011375873174</v>
+      </c>
+      <c r="I3">
+        <v>0.009499555171106344</v>
+      </c>
+      <c r="J3">
+        <v>0.5337828465432466</v>
+      </c>
+      <c r="K3">
+        <v>0.6866012684595049</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>3.545338964346854</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.7373551180657785</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.02406674509451534</v>
+      </c>
+      <c r="D4">
+        <v>0.02388872090941518</v>
+      </c>
+      <c r="E4">
+        <v>1.056871818783065</v>
+      </c>
+      <c r="F4">
+        <v>0.8218995340372572</v>
+      </c>
+      <c r="G4">
+        <v>0.7658547107939029</v>
+      </c>
+      <c r="H4">
+        <v>0.004768936930803158</v>
+      </c>
+      <c r="I4">
+        <v>0.007277085262726857</v>
+      </c>
+      <c r="J4">
+        <v>0.5114653336619881</v>
+      </c>
+      <c r="K4">
+        <v>0.6456812391050448</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>3.217940847781335</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.7487484934195408</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.02269829619908847</v>
+      </c>
+      <c r="D5">
+        <v>0.02359045177805186</v>
+      </c>
+      <c r="E5">
+        <v>1.013200072490932</v>
+      </c>
+      <c r="F5">
+        <v>0.798480983812496</v>
+      </c>
+      <c r="G5">
+        <v>0.74312614813023</v>
+      </c>
+      <c r="H5">
+        <v>0.004141272643368499</v>
+      </c>
+      <c r="I5">
+        <v>0.006496070394958142</v>
+      </c>
+      <c r="J5">
+        <v>0.5019317018103493</v>
+      </c>
+      <c r="K5">
+        <v>0.6279895631534345</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>3.082689479348005</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.7538171171772348</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.02222112422160549</v>
+      </c>
+      <c r="D6">
+        <v>0.02357606513298904</v>
+      </c>
+      <c r="E6">
+        <v>1.005917901365137</v>
+      </c>
+      <c r="F6">
+        <v>0.7934723187804593</v>
+      </c>
+      <c r="G6">
+        <v>0.7380804162805816</v>
+      </c>
+      <c r="H6">
+        <v>0.004037723075192012</v>
+      </c>
+      <c r="I6">
+        <v>0.006433623704098501</v>
+      </c>
+      <c r="J6">
+        <v>0.499710409148463</v>
+      </c>
+      <c r="K6">
+        <v>0.6237533867295113</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>3.058116822514535</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.754984377105508</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.02336092825308</v>
+      </c>
+      <c r="D7">
+        <v>0.02398178047170418</v>
+      </c>
+      <c r="E7">
+        <v>1.056183962868801</v>
+      </c>
+      <c r="F7">
+        <v>0.8184909201804658</v>
+      </c>
+      <c r="G7">
+        <v>0.7620435164567994</v>
+      </c>
+      <c r="H7">
+        <v>0.004751721223760774</v>
+      </c>
+      <c r="I7">
+        <v>0.00742009832978674</v>
+      </c>
+      <c r="J7">
+        <v>0.5095761235475464</v>
+      </c>
+      <c r="K7">
+        <v>0.6418780748207809</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>3.210337368082492</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.7496917584553913</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.02897401225217067</v>
+      </c>
+      <c r="D8">
+        <v>0.02564316284839663</v>
+      </c>
+      <c r="E8">
+        <v>1.278952278638357</v>
+      </c>
+      <c r="F8">
+        <v>0.9332964336149274</v>
+      </c>
+      <c r="G8">
+        <v>0.8723713921131804</v>
+      </c>
+      <c r="H8">
+        <v>0.008458724724196731</v>
+      </c>
+      <c r="I8">
+        <v>0.01232848115087926</v>
+      </c>
+      <c r="J8">
+        <v>0.5555792042369774</v>
+      </c>
+      <c r="K8">
+        <v>0.7257062347259549</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>3.886657184846911</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.7270147055751508</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.04109051520890716</v>
+      </c>
+      <c r="D9">
+        <v>0.02858934144867575</v>
+      </c>
+      <c r="E9">
+        <v>1.720907588017198</v>
+      </c>
+      <c r="F9">
+        <v>1.170791173237816</v>
+      </c>
+      <c r="G9">
+        <v>1.101077196464061</v>
+      </c>
+      <c r="H9">
+        <v>0.01809139867539944</v>
+      </c>
+      <c r="I9">
+        <v>0.0248225087911047</v>
+      </c>
+      <c r="J9">
+        <v>0.6525098971523562</v>
+      </c>
+      <c r="K9">
+        <v>0.8990527540141002</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>5.222957026649965</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.6867642575800801</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.0501567204580553</v>
+      </c>
+      <c r="D10">
+        <v>0.03133642875633313</v>
+      </c>
+      <c r="E10">
+        <v>1.94795658193874</v>
+      </c>
+      <c r="F10">
+        <v>1.332528113924553</v>
+      </c>
+      <c r="G10">
+        <v>1.253431847558403</v>
+      </c>
+      <c r="H10">
+        <v>0.02621011175216692</v>
+      </c>
+      <c r="I10">
+        <v>0.03606849639819387</v>
+      </c>
+      <c r="J10">
+        <v>0.7163495785731584</v>
+      </c>
+      <c r="K10">
+        <v>1.013971930937785</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>6.17101788642708</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.6677390876742066</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.0579512762198533</v>
+      </c>
+      <c r="D11">
+        <v>0.03892742528823945</v>
+      </c>
+      <c r="E11">
+        <v>1.260877578705433</v>
+      </c>
+      <c r="F11">
+        <v>1.25768691262374</v>
+      </c>
+      <c r="G11">
+        <v>1.155342509884974</v>
+      </c>
+      <c r="H11">
+        <v>0.04168845884529304</v>
+      </c>
+      <c r="I11">
+        <v>0.03890981476992383</v>
+      </c>
+      <c r="J11">
+        <v>0.6631577650326506</v>
+      </c>
+      <c r="K11">
+        <v>0.9492355687854399</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>6.302824235567869</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.7197599828158729</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.06457320253963417</v>
+      </c>
+      <c r="D12">
+        <v>0.0456178441492554</v>
+      </c>
+      <c r="E12">
+        <v>0.7654311908112419</v>
+      </c>
+      <c r="F12">
+        <v>1.16695798077734</v>
+      </c>
+      <c r="G12">
+        <v>1.04944418450178</v>
+      </c>
+      <c r="H12">
+        <v>0.07748914284054109</v>
+      </c>
+      <c r="I12">
+        <v>0.03880038217945092</v>
+      </c>
+      <c r="J12">
+        <v>0.6088560791044131</v>
+      </c>
+      <c r="K12">
+        <v>0.8777163076487611</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>6.221712033028382</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.7731388197522051</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.06949755195222451</v>
+      </c>
+      <c r="D13">
+        <v>0.05204982226049282</v>
+      </c>
+      <c r="E13">
+        <v>0.3893365963652755</v>
+      </c>
+      <c r="F13">
+        <v>1.054227598313631</v>
+      </c>
+      <c r="G13">
+        <v>0.9263627404916406</v>
+      </c>
+      <c r="H13">
+        <v>0.1302760181971792</v>
+      </c>
+      <c r="I13">
+        <v>0.03660753586866594</v>
+      </c>
+      <c r="J13">
+        <v>0.5479556404801968</v>
+      </c>
+      <c r="K13">
+        <v>0.7915136951028785</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>5.963931275058144</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.8306522105362433</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.07196690219004154</v>
+      </c>
+      <c r="D14">
+        <v>0.05654868582609396</v>
+      </c>
+      <c r="E14">
+        <v>0.198781645412744</v>
+      </c>
+      <c r="F14">
+        <v>0.9656716482117815</v>
+      </c>
+      <c r="G14">
+        <v>0.8329705619050713</v>
+      </c>
+      <c r="H14">
+        <v>0.1776378999010717</v>
+      </c>
+      <c r="I14">
+        <v>0.03428771992620838</v>
+      </c>
+      <c r="J14">
+        <v>0.5025140302936251</v>
+      </c>
+      <c r="K14">
+        <v>0.7244670359331025</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>5.70366699010043</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.8734216174687077</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.0717082468318111</v>
+      </c>
+      <c r="D15">
+        <v>0.05751741943281274</v>
+      </c>
+      <c r="E15">
+        <v>0.1612794196901568</v>
+      </c>
+      <c r="F15">
+        <v>0.9383593084789936</v>
+      </c>
+      <c r="G15">
+        <v>0.8052141684059109</v>
+      </c>
+      <c r="H15">
+        <v>0.1894737311998824</v>
+      </c>
+      <c r="I15">
+        <v>0.03334534072712358</v>
+      </c>
+      <c r="J15">
+        <v>0.4894106766633968</v>
+      </c>
+      <c r="K15">
+        <v>0.7037646099715786</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>5.601084018468839</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.8842362136272328</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.06614193773330612</v>
+      </c>
+      <c r="D16">
+        <v>0.05484353776767392</v>
+      </c>
+      <c r="E16">
+        <v>0.1563981927266624</v>
+      </c>
+      <c r="F16">
+        <v>0.8923986364385996</v>
+      </c>
+      <c r="G16">
+        <v>0.7657766765806855</v>
+      </c>
+      <c r="H16">
+        <v>0.1742724464906757</v>
+      </c>
+      <c r="I16">
+        <v>0.02908161433979828</v>
+      </c>
+      <c r="J16">
+        <v>0.4745514264858599</v>
+      </c>
+      <c r="K16">
+        <v>0.6719426208848773</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>5.249966240191497</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.8771281501672235</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.0605342432955922</v>
+      </c>
+      <c r="D17">
+        <v>0.05037254411608671</v>
+      </c>
+      <c r="E17">
+        <v>0.2398417607872858</v>
+      </c>
+      <c r="F17">
+        <v>0.9035458581143558</v>
+      </c>
+      <c r="G17">
+        <v>0.7842036671349319</v>
+      </c>
+      <c r="H17">
+        <v>0.1355693841263275</v>
+      </c>
+      <c r="I17">
+        <v>0.0270547256055238</v>
+      </c>
+      <c r="J17">
+        <v>0.4869303561437448</v>
+      </c>
+      <c r="K17">
+        <v>0.6825141588479724</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>5.117736185704132</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.8493013048391447</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.05530435158183167</v>
+      </c>
+      <c r="D18">
+        <v>0.0441418296759295</v>
+      </c>
+      <c r="E18">
+        <v>0.4720449395459738</v>
+      </c>
+      <c r="F18">
+        <v>0.9684245355334298</v>
+      </c>
+      <c r="G18">
+        <v>0.8589784112677989</v>
+      </c>
+      <c r="H18">
+        <v>0.08343360979600334</v>
+      </c>
+      <c r="I18">
+        <v>0.0264954562132651</v>
+      </c>
+      <c r="J18">
+        <v>0.5261802356287859</v>
+      </c>
+      <c r="K18">
+        <v>0.7344078150262732</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>5.163248465044262</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.8020829878286406</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.04958741989327109</v>
+      </c>
+      <c r="D19">
+        <v>0.03790061826427404</v>
+      </c>
+      <c r="E19">
+        <v>0.9051343527055167</v>
+      </c>
+      <c r="F19">
+        <v>1.069342561065582</v>
+      </c>
+      <c r="G19">
+        <v>0.9720977805388173</v>
+      </c>
+      <c r="H19">
+        <v>0.04088558500190231</v>
+      </c>
+      <c r="I19">
+        <v>0.0276654550572033</v>
+      </c>
+      <c r="J19">
+        <v>0.5830663590455174</v>
+      </c>
+      <c r="K19">
+        <v>0.8121414890748895</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>5.33951766871138</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.7495497348016187</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.04556376051210975</v>
+      </c>
+      <c r="D20">
+        <v>0.03097458440467449</v>
+      </c>
+      <c r="E20">
+        <v>1.883429668227606</v>
+      </c>
+      <c r="F20">
+        <v>1.279066521069694</v>
+      </c>
+      <c r="G20">
+        <v>1.201065507012345</v>
+      </c>
+      <c r="H20">
+        <v>0.02385163494612996</v>
+      </c>
+      <c r="I20">
+        <v>0.03333855017913123</v>
+      </c>
+      <c r="J20">
+        <v>0.6934116132807446</v>
+      </c>
+      <c r="K20">
+        <v>0.9717039459419539</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>5.901622039507799</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.6758683590799706</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.05224950548184637</v>
+      </c>
+      <c r="D21">
+        <v>0.03203389276843538</v>
+      </c>
+      <c r="E21">
+        <v>2.218037983980494</v>
+      </c>
+      <c r="F21">
+        <v>1.433544647663894</v>
+      </c>
+      <c r="G21">
+        <v>1.351952358591944</v>
+      </c>
+      <c r="H21">
+        <v>0.03192914897583332</v>
+      </c>
+      <c r="I21">
+        <v>0.04330537451403949</v>
+      </c>
+      <c r="J21">
+        <v>0.7591677784299975</v>
+      </c>
+      <c r="K21">
+        <v>1.083458811003567</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>6.685993850079456</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.6529245024293857</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.05783193725560665</v>
+      </c>
+      <c r="D22">
+        <v>0.03288929841029287</v>
+      </c>
+      <c r="E22">
+        <v>2.386374458657968</v>
+      </c>
+      <c r="F22">
+        <v>1.531702735699596</v>
+      </c>
+      <c r="G22">
+        <v>1.447103772658068</v>
+      </c>
+      <c r="H22">
+        <v>0.0373060126028264</v>
+      </c>
+      <c r="I22">
+        <v>0.05009530223922187</v>
+      </c>
+      <c r="J22">
+        <v>0.8005205744419754</v>
+      </c>
+      <c r="K22">
+        <v>1.155441982890139</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>7.191242514443445</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.6405010252343786</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.05568884489649406</v>
+      </c>
+      <c r="D23">
+        <v>0.03231014812153532</v>
+      </c>
+      <c r="E23">
+        <v>2.29654619765256</v>
+      </c>
+      <c r="F23">
+        <v>1.482937030666122</v>
+      </c>
+      <c r="G23">
+        <v>1.400455063174917</v>
+      </c>
+      <c r="H23">
+        <v>0.03441623793276483</v>
+      </c>
+      <c r="I23">
+        <v>0.04626493388239439</v>
+      </c>
+      <c r="J23">
+        <v>0.7805047839389374</v>
+      </c>
+      <c r="K23">
+        <v>1.121296267090116</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>6.92867029889743</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.6458068817910743</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.04634599140248952</v>
+      </c>
+      <c r="D24">
+        <v>0.03027677999056166</v>
+      </c>
+      <c r="E24">
+        <v>1.959148557946904</v>
+      </c>
+      <c r="F24">
+        <v>1.29559781271422</v>
+      </c>
+      <c r="G24">
+        <v>1.220190250956108</v>
+      </c>
+      <c r="H24">
+        <v>0.02435037880145918</v>
+      </c>
+      <c r="I24">
+        <v>0.03318346286209728</v>
+      </c>
+      <c r="J24">
+        <v>0.7029761778238992</v>
+      </c>
+      <c r="K24">
+        <v>0.9867857649496159</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>5.926039297892885</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.6696852543757998</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.03654392647892024</v>
+      </c>
+      <c r="D25">
+        <v>0.02799085592516803</v>
+      </c>
+      <c r="E25">
+        <v>1.600421906100252</v>
+      </c>
+      <c r="F25">
+        <v>1.099965113332644</v>
+      </c>
+      <c r="G25">
+        <v>1.031947632446958</v>
+      </c>
+      <c r="H25">
+        <v>0.01517184508916569</v>
+      </c>
+      <c r="I25">
+        <v>0.02129414122093998</v>
+      </c>
+      <c r="J25">
+        <v>0.6226102693896252</v>
+      </c>
+      <c r="K25">
+        <v>0.8452335272950506</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>4.850410642107249</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.6987434104534813</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03147131394779024</v>
+        <v>0.008655479635647723</v>
       </c>
       <c r="D2">
-        <v>0.02594442245109363</v>
+        <v>0.03174691126207208</v>
       </c>
       <c r="E2">
-        <v>1.339731584508584</v>
+        <v>1.332888604915524</v>
       </c>
       <c r="F2">
-        <v>0.9692099226271438</v>
+        <v>0.8350148425694073</v>
       </c>
       <c r="G2">
-        <v>0.9076091030881059</v>
+        <v>0.7344056035664721</v>
       </c>
       <c r="H2">
-        <v>0.009624872997204249</v>
+        <v>0.008897650857367934</v>
       </c>
       <c r="I2">
-        <v>0.01367947323787577</v>
+        <v>0.01170860216757053</v>
       </c>
       <c r="J2">
-        <v>0.5707580584756187</v>
+        <v>0.5425618317144512</v>
       </c>
       <c r="K2">
-        <v>0.753635765821997</v>
+        <v>0.6002928207433342</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2960573139046616</v>
       </c>
       <c r="M2">
-        <v>4.07806704169235</v>
+        <v>0.1759524600941234</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>3.810800514449056</v>
       </c>
       <c r="P2">
-        <v>0.719940341323948</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.7717897828433564</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0269006778235763</v>
+        <v>0.006991351444867178</v>
       </c>
       <c r="D3">
-        <v>0.02468107580834555</v>
+        <v>0.02931004394499936</v>
       </c>
       <c r="E3">
-        <v>1.164191424197753</v>
+        <v>1.15959588782691</v>
       </c>
       <c r="F3">
-        <v>0.8774933972598973</v>
+        <v>0.7638283306744142</v>
       </c>
       <c r="G3">
-        <v>0.8193943302796498</v>
+        <v>0.6697016981753876</v>
       </c>
       <c r="H3">
-        <v>0.006453011375873174</v>
+        <v>0.006019090632222723</v>
       </c>
       <c r="I3">
-        <v>0.009499555171106344</v>
+        <v>0.008471425519402498</v>
       </c>
       <c r="J3">
-        <v>0.5337828465432466</v>
+        <v>0.5135033117602887</v>
       </c>
       <c r="K3">
-        <v>0.6866012684595049</v>
+        <v>0.5556042497805862</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2892168155231545</v>
       </c>
       <c r="M3">
-        <v>3.545338964346854</v>
+        <v>0.1492939764446035</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>3.323883783636745</v>
       </c>
       <c r="P3">
-        <v>0.7373551180657785</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.7780864770750426</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02406674509451534</v>
+        <v>0.006043423807474468</v>
       </c>
       <c r="D4">
-        <v>0.02388872090941518</v>
+        <v>0.02781075297836821</v>
       </c>
       <c r="E4">
-        <v>1.056871818783065</v>
+        <v>1.053532879927971</v>
       </c>
       <c r="F4">
-        <v>0.8218995340372572</v>
+        <v>0.7205168743058294</v>
       </c>
       <c r="G4">
-        <v>0.7658547107939029</v>
+        <v>0.6304380504539324</v>
       </c>
       <c r="H4">
-        <v>0.004768936930803158</v>
+        <v>0.004482562679793078</v>
       </c>
       <c r="I4">
-        <v>0.007277085262726857</v>
+        <v>0.006725290918109916</v>
       </c>
       <c r="J4">
-        <v>0.5114653336619881</v>
+        <v>0.4956637649084996</v>
       </c>
       <c r="K4">
-        <v>0.6456812391050448</v>
+        <v>0.5281104111544508</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2846928007739322</v>
       </c>
       <c r="M4">
-        <v>3.217940847781335</v>
+        <v>0.133734925746861</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>3.02395690902722</v>
       </c>
       <c r="P4">
-        <v>0.7487484934195408</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.7827556438668353</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02269829619908847</v>
+        <v>0.00560580832890345</v>
       </c>
       <c r="D5">
-        <v>0.02359045177805186</v>
+        <v>0.02723595855248107</v>
       </c>
       <c r="E5">
-        <v>1.013200072490932</v>
+        <v>1.010350219315399</v>
       </c>
       <c r="F5">
-        <v>0.798480983812496</v>
+        <v>0.7021392728940583</v>
       </c>
       <c r="G5">
-        <v>0.74312614813023</v>
+        <v>0.6136382715337305</v>
       </c>
       <c r="H5">
-        <v>0.004141272643368499</v>
+        <v>0.003907988077643587</v>
       </c>
       <c r="I5">
-        <v>0.006496070394958142</v>
+        <v>0.006129261108663187</v>
       </c>
       <c r="J5">
-        <v>0.5019317018103493</v>
+        <v>0.4879180864385404</v>
       </c>
       <c r="K5">
-        <v>0.6279895631534345</v>
+        <v>0.5159917028190293</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2823774057671073</v>
       </c>
       <c r="M5">
-        <v>3.082689479348005</v>
+        <v>0.1273053575970202</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.899891593965066</v>
       </c>
       <c r="P5">
-        <v>0.7538171171772348</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.7851615212922525</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02222112422160549</v>
+        <v>0.005454160996100299</v>
       </c>
       <c r="D6">
-        <v>0.02357606513298904</v>
+        <v>0.02718597614085638</v>
       </c>
       <c r="E6">
-        <v>1.005917901365137</v>
+        <v>1.003152678425295</v>
       </c>
       <c r="F6">
-        <v>0.7934723187804593</v>
+        <v>0.6980987600161441</v>
       </c>
       <c r="G6">
-        <v>0.7380804162805816</v>
+        <v>0.6097558619091643</v>
       </c>
       <c r="H6">
-        <v>0.004037723075192012</v>
+        <v>0.003813265567531809</v>
       </c>
       <c r="I6">
-        <v>0.006433623704098501</v>
+        <v>0.006115274983846675</v>
       </c>
       <c r="J6">
-        <v>0.499710409148463</v>
+        <v>0.486053928863015</v>
       </c>
       <c r="K6">
-        <v>0.6237533867295113</v>
+        <v>0.5128854684486441</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2815127130300041</v>
       </c>
       <c r="M6">
-        <v>3.058116822514535</v>
+        <v>0.1258974510920723</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.877342155168975</v>
       </c>
       <c r="P6">
-        <v>0.754984377105508</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.7859514172523774</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02336092825308</v>
+        <v>0.005856503105208688</v>
       </c>
       <c r="D7">
-        <v>0.02398178047170418</v>
+        <v>0.02800439474737004</v>
       </c>
       <c r="E7">
-        <v>1.056183962868801</v>
+        <v>1.052817910969694</v>
       </c>
       <c r="F7">
-        <v>0.8184909201804658</v>
+        <v>0.7158983127477327</v>
       </c>
       <c r="G7">
-        <v>0.7620435164567994</v>
+        <v>0.6310442916527705</v>
       </c>
       <c r="H7">
-        <v>0.004751721223760774</v>
+        <v>0.004463345936866148</v>
       </c>
       <c r="I7">
-        <v>0.00742009832978674</v>
+        <v>0.006911391016520163</v>
       </c>
       <c r="J7">
-        <v>0.5095761235475464</v>
+        <v>0.4870602543231115</v>
       </c>
       <c r="K7">
-        <v>0.6418780748207809</v>
+        <v>0.5237940531747967</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2828852380905928</v>
       </c>
       <c r="M7">
-        <v>3.210337368082492</v>
+        <v>0.1322794386725263</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>3.013775597942356</v>
       </c>
       <c r="P7">
-        <v>0.7496917584553913</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.7844760328409421</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02897401225217067</v>
+        <v>0.007904095306832559</v>
       </c>
       <c r="D8">
-        <v>0.02564316284839663</v>
+        <v>0.03133903701126783</v>
       </c>
       <c r="E8">
-        <v>1.278952278638357</v>
+        <v>1.27276899896151</v>
       </c>
       <c r="F8">
-        <v>0.9332964336149274</v>
+        <v>0.801271825692325</v>
       </c>
       <c r="G8">
-        <v>0.8723713921131804</v>
+        <v>0.7208659490662939</v>
       </c>
       <c r="H8">
-        <v>0.008458724724196731</v>
+        <v>0.007825528022158856</v>
       </c>
       <c r="I8">
-        <v>0.01232848115087926</v>
+        <v>0.01073361619738211</v>
       </c>
       <c r="J8">
-        <v>0.5555792042369774</v>
+        <v>0.5076493539739459</v>
       </c>
       <c r="K8">
-        <v>0.7257062347259549</v>
+        <v>0.5770702743841554</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2905922296490004</v>
       </c>
       <c r="M8">
-        <v>3.886657184846911</v>
+        <v>0.1638398269936232</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>3.625220013782496</v>
       </c>
       <c r="P8">
-        <v>0.7270147055751508</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.7774945377367928</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04109051520890716</v>
+        <v>0.01287116404142985</v>
       </c>
       <c r="D9">
-        <v>0.02858934144867575</v>
+        <v>0.03734670543583007</v>
       </c>
       <c r="E9">
-        <v>1.720907588017198</v>
+        <v>1.70816132435651</v>
       </c>
       <c r="F9">
-        <v>1.170791173237816</v>
+        <v>0.9834414416331612</v>
       </c>
       <c r="G9">
-        <v>1.101077196464061</v>
+        <v>0.8929637716901624</v>
       </c>
       <c r="H9">
-        <v>0.01809139867539944</v>
+        <v>0.01649478512167191</v>
       </c>
       <c r="I9">
-        <v>0.0248225087911047</v>
+        <v>0.02011565050670061</v>
       </c>
       <c r="J9">
-        <v>0.6525098971523562</v>
+        <v>0.5757362807255362</v>
       </c>
       <c r="K9">
-        <v>0.8990527540141002</v>
+        <v>0.6910186095924757</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3071298975285828</v>
       </c>
       <c r="M9">
-        <v>5.222957026649965</v>
+        <v>0.2356970987309168</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>4.839113244213706</v>
       </c>
       <c r="P9">
-        <v>0.6867642575800801</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.7661650549130599</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0501567204580553</v>
+        <v>0.01732627585305657</v>
       </c>
       <c r="D10">
-        <v>0.03133642875633313</v>
+        <v>0.04310522279657647</v>
       </c>
       <c r="E10">
-        <v>1.94795658193874</v>
+        <v>1.929704850706699</v>
       </c>
       <c r="F10">
-        <v>1.332528113924553</v>
+        <v>1.09591680198173</v>
       </c>
       <c r="G10">
-        <v>1.253431847558403</v>
+        <v>1.029653209016146</v>
       </c>
       <c r="H10">
-        <v>0.02621011175216692</v>
+        <v>0.02369002414103516</v>
       </c>
       <c r="I10">
-        <v>0.03606849639819387</v>
+        <v>0.02837819020667798</v>
       </c>
       <c r="J10">
-        <v>0.7163495785731584</v>
+        <v>0.5790738514837273</v>
       </c>
       <c r="K10">
-        <v>1.013971930937785</v>
+        <v>0.7573973489652417</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3114510968261399</v>
       </c>
       <c r="M10">
-        <v>6.17101788642708</v>
+        <v>0.2857454470759819</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>5.677906757035373</v>
       </c>
       <c r="P10">
-        <v>0.6677390876742066</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.7743851413740117</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0579512762198533</v>
+        <v>0.02107478976206068</v>
       </c>
       <c r="D11">
-        <v>0.03892742528823945</v>
+        <v>0.05466210681385775</v>
       </c>
       <c r="E11">
-        <v>1.260877578705433</v>
+        <v>1.244961885444965</v>
       </c>
       <c r="F11">
-        <v>1.25768691262374</v>
+        <v>1.010514087863555</v>
       </c>
       <c r="G11">
-        <v>1.155342509884974</v>
+        <v>0.993389296611852</v>
       </c>
       <c r="H11">
-        <v>0.04168845884529304</v>
+        <v>0.03918352047413975</v>
       </c>
       <c r="I11">
-        <v>0.03890981476992383</v>
+        <v>0.03050678226534043</v>
       </c>
       <c r="J11">
-        <v>0.6631577650326506</v>
+        <v>0.4604639994459063</v>
       </c>
       <c r="K11">
-        <v>0.9492355687854399</v>
+        <v>0.6910709839508797</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.279362033774575</v>
       </c>
       <c r="M11">
-        <v>6.302824235567869</v>
+        <v>0.2694914572878773</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>5.766188315050897</v>
       </c>
       <c r="P11">
-        <v>0.7197599828158729</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.8566210834769805</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.06457320253963417</v>
+        <v>0.02477565699882334</v>
       </c>
       <c r="D12">
-        <v>0.0456178441492554</v>
+        <v>0.06373165965474925</v>
       </c>
       <c r="E12">
-        <v>0.7654311908112419</v>
+        <v>0.7524064040063649</v>
       </c>
       <c r="F12">
-        <v>1.16695798077734</v>
+        <v>0.9271496609038365</v>
       </c>
       <c r="G12">
-        <v>1.04944418450178</v>
+        <v>0.9250967135013326</v>
       </c>
       <c r="H12">
-        <v>0.07748914284054109</v>
+        <v>0.07515476244187624</v>
       </c>
       <c r="I12">
-        <v>0.03880038217945092</v>
+        <v>0.03037931659232829</v>
       </c>
       <c r="J12">
-        <v>0.6088560791044131</v>
+        <v>0.3919618035212267</v>
       </c>
       <c r="K12">
-        <v>0.8777163076487611</v>
+        <v>0.631824664981373</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.255686491143841</v>
       </c>
       <c r="M12">
-        <v>6.221712033028382</v>
+        <v>0.2489508679306169</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>5.68318166991628</v>
       </c>
       <c r="P12">
-        <v>0.7731388197522051</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.9268467792419415</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.06949755195222451</v>
+        <v>0.0280663328535482</v>
       </c>
       <c r="D13">
-        <v>0.05204982226049282</v>
+        <v>0.0709278101005566</v>
       </c>
       <c r="E13">
-        <v>0.3893365963652755</v>
+        <v>0.3794770856289205</v>
       </c>
       <c r="F13">
-        <v>1.054227598313631</v>
+        <v>0.8393540429068906</v>
       </c>
       <c r="G13">
-        <v>0.9263627404916406</v>
+        <v>0.8159335103446068</v>
       </c>
       <c r="H13">
-        <v>0.1302760181971792</v>
+        <v>0.1282372594300938</v>
       </c>
       <c r="I13">
-        <v>0.03660753586866594</v>
+        <v>0.02883505807098974</v>
       </c>
       <c r="J13">
-        <v>0.5479556404801968</v>
+        <v>0.3600048889843208</v>
       </c>
       <c r="K13">
-        <v>0.7915136951028785</v>
+        <v>0.5720041117060077</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2355279725963371</v>
       </c>
       <c r="M13">
-        <v>5.963931275058144</v>
+        <v>0.2233960916539317</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>5.464265384522548</v>
       </c>
       <c r="P13">
-        <v>0.8306522105362433</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.9877243407543261</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07196690219004154</v>
+        <v>0.03012198815252987</v>
       </c>
       <c r="D14">
-        <v>0.05654868582609396</v>
+        <v>0.07512011751737191</v>
       </c>
       <c r="E14">
-        <v>0.198781645412744</v>
+        <v>0.191025250159953</v>
       </c>
       <c r="F14">
-        <v>0.9656716482117815</v>
+        <v>0.7751893435783472</v>
       </c>
       <c r="G14">
-        <v>0.8329705619050713</v>
+        <v>0.7235817725863711</v>
       </c>
       <c r="H14">
-        <v>0.1776378999010717</v>
+        <v>0.175840398065759</v>
       </c>
       <c r="I14">
-        <v>0.03428771992620838</v>
+        <v>0.02724880824782527</v>
       </c>
       <c r="J14">
-        <v>0.5025140302936251</v>
+        <v>0.3506204211557673</v>
       </c>
       <c r="K14">
-        <v>0.7244670359331025</v>
+        <v>0.5290561277750214</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2224785434732794</v>
       </c>
       <c r="M14">
-        <v>5.70366699010043</v>
+        <v>0.2031831550788183</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>5.2485172469502</v>
       </c>
       <c r="P14">
-        <v>0.8734216174687077</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>1.026050202906035</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0717082468318111</v>
+        <v>0.03015560371903092</v>
       </c>
       <c r="D15">
-        <v>0.05751741943281274</v>
+        <v>0.07566826436985252</v>
       </c>
       <c r="E15">
-        <v>0.1612794196901568</v>
+        <v>0.1540991885723244</v>
       </c>
       <c r="F15">
-        <v>0.9383593084789936</v>
+        <v>0.7570574420891774</v>
       </c>
       <c r="G15">
-        <v>0.8052141684059109</v>
+        <v>0.6929118236641472</v>
       </c>
       <c r="H15">
-        <v>0.1894737311998824</v>
+        <v>0.1877670837792778</v>
       </c>
       <c r="I15">
-        <v>0.03334534072712358</v>
+        <v>0.02664823663056293</v>
       </c>
       <c r="J15">
-        <v>0.4894106766633968</v>
+        <v>0.3532900146627043</v>
       </c>
       <c r="K15">
-        <v>0.7037646099715786</v>
+        <v>0.5169926034060737</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2193951579994078</v>
       </c>
       <c r="M15">
-        <v>5.601084018468839</v>
+        <v>0.1967252175399494</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>5.164631872169025</v>
       </c>
       <c r="P15">
-        <v>0.8842362136272328</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>1.032951282163083</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06614193773330612</v>
+        <v>0.02670454520777099</v>
       </c>
       <c r="D16">
-        <v>0.05484353776767392</v>
+        <v>0.07007963827071251</v>
       </c>
       <c r="E16">
-        <v>0.1563981927266624</v>
+        <v>0.1502312029906179</v>
       </c>
       <c r="F16">
-        <v>0.8923986364385996</v>
+        <v>0.7387015610024008</v>
       </c>
       <c r="G16">
-        <v>0.7657766765806855</v>
+        <v>0.6276192733876087</v>
       </c>
       <c r="H16">
-        <v>0.1742724464906757</v>
+        <v>0.1729017348038582</v>
       </c>
       <c r="I16">
-        <v>0.02908161433979828</v>
+        <v>0.02369786071373436</v>
       </c>
       <c r="J16">
-        <v>0.4745514264858599</v>
+        <v>0.3997187666381876</v>
       </c>
       <c r="K16">
-        <v>0.6719426208848773</v>
+        <v>0.5082945553696803</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2228121669455589</v>
       </c>
       <c r="M16">
-        <v>5.249966240191497</v>
+        <v>0.1846239019216256</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>4.880636787282981</v>
       </c>
       <c r="P16">
-        <v>0.8771281501672235</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>1.001914790085721</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0605342432955922</v>
+        <v>0.02312124741859733</v>
       </c>
       <c r="D17">
-        <v>0.05037254411608671</v>
+        <v>0.06392812967585826</v>
       </c>
       <c r="E17">
-        <v>0.2398417607872858</v>
+        <v>0.2335375476577823</v>
       </c>
       <c r="F17">
-        <v>0.9035458581143558</v>
+        <v>0.756698954904067</v>
       </c>
       <c r="G17">
-        <v>0.7842036671349319</v>
+        <v>0.6296104023618199</v>
       </c>
       <c r="H17">
-        <v>0.1355693841263275</v>
+        <v>0.1343281992703851</v>
       </c>
       <c r="I17">
-        <v>0.0270547256055238</v>
+        <v>0.02227058793415893</v>
       </c>
       <c r="J17">
-        <v>0.4869303561437448</v>
+        <v>0.436208567371736</v>
       </c>
       <c r="K17">
-        <v>0.6825141588479724</v>
+        <v>0.5230224510390684</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2322036109925492</v>
       </c>
       <c r="M17">
-        <v>5.117736185704132</v>
+        <v>0.185255454789214</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>4.77163370545594</v>
       </c>
       <c r="P17">
-        <v>0.8493013048391447</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.9610487302163193</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.05530435158183167</v>
+        <v>0.01964048146489716</v>
       </c>
       <c r="D18">
-        <v>0.0441418296759295</v>
+        <v>0.05648082280657718</v>
       </c>
       <c r="E18">
-        <v>0.4720449395459738</v>
+        <v>0.4645086802446983</v>
       </c>
       <c r="F18">
-        <v>0.9684245355334298</v>
+        <v>0.8142909122450561</v>
       </c>
       <c r="G18">
-        <v>0.8589784112677989</v>
+        <v>0.684927790902421</v>
       </c>
       <c r="H18">
-        <v>0.08343360979600334</v>
+        <v>0.0821598191249322</v>
       </c>
       <c r="I18">
-        <v>0.0264954562132651</v>
+        <v>0.02176352735435128</v>
       </c>
       <c r="J18">
-        <v>0.5261802356287859</v>
+        <v>0.4801172509147307</v>
       </c>
       <c r="K18">
-        <v>0.7344078150262732</v>
+        <v>0.5648807517407803</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.24991015465028</v>
       </c>
       <c r="M18">
-        <v>5.163248465044262</v>
+        <v>0.1987168491795472</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>4.812609645064526</v>
       </c>
       <c r="P18">
-        <v>0.8020829878286406</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.90544041722994</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.04958741989327109</v>
+        <v>0.01648613517649444</v>
       </c>
       <c r="D19">
-        <v>0.03790061826427404</v>
+        <v>0.04927673341487804</v>
       </c>
       <c r="E19">
-        <v>0.9051343527055167</v>
+        <v>0.8952096647841898</v>
       </c>
       <c r="F19">
-        <v>1.069342561065582</v>
+        <v>0.8984775305517303</v>
       </c>
       <c r="G19">
-        <v>0.9720977805388173</v>
+        <v>0.7747003768237448</v>
       </c>
       <c r="H19">
-        <v>0.04088558500190231</v>
+        <v>0.03941359258794819</v>
       </c>
       <c r="I19">
-        <v>0.0276654550572033</v>
+        <v>0.02265569300885595</v>
       </c>
       <c r="J19">
-        <v>0.5830663590455174</v>
+        <v>0.5300517236661904</v>
       </c>
       <c r="K19">
-        <v>0.8121414890748895</v>
+        <v>0.6231915956166318</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2721480674594403</v>
       </c>
       <c r="M19">
-        <v>5.33951766871138</v>
+        <v>0.2206327565822335</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>4.965836164152449</v>
       </c>
       <c r="P19">
-        <v>0.7495497348016187</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.8472494978300631</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04556376051210975</v>
+        <v>0.01551458757254309</v>
       </c>
       <c r="D20">
-        <v>0.03097458440467449</v>
+        <v>0.04175270500235229</v>
       </c>
       <c r="E20">
-        <v>1.883429668227606</v>
+        <v>1.866979308456578</v>
       </c>
       <c r="F20">
-        <v>1.279066521069694</v>
+        <v>1.063072298213129</v>
       </c>
       <c r="G20">
-        <v>1.201065507012345</v>
+        <v>0.9690283853854424</v>
       </c>
       <c r="H20">
-        <v>0.02385163494612996</v>
+        <v>0.02163104848599628</v>
       </c>
       <c r="I20">
-        <v>0.03333855017913123</v>
+        <v>0.02676724061443458</v>
       </c>
       <c r="J20">
-        <v>0.6934116132807446</v>
+        <v>0.5970743828615497</v>
       </c>
       <c r="K20">
-        <v>0.9717039459419539</v>
+        <v>0.7344941904251812</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3083915813877525</v>
       </c>
       <c r="M20">
-        <v>5.901622039507799</v>
+        <v>0.2701926439102493</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>5.451552616687025</v>
       </c>
       <c r="P20">
-        <v>0.6758683590799706</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.7732785369718016</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.05224950548184637</v>
+        <v>0.01964015928737695</v>
       </c>
       <c r="D21">
-        <v>0.03203389276843538</v>
+        <v>0.0465677022125135</v>
       </c>
       <c r="E21">
-        <v>2.218037983980494</v>
+        <v>2.194903674449932</v>
       </c>
       <c r="F21">
-        <v>1.433544647663894</v>
+        <v>1.142086678260782</v>
       </c>
       <c r="G21">
-        <v>1.351952358591944</v>
+        <v>1.179640259241012</v>
       </c>
       <c r="H21">
-        <v>0.03192914897583332</v>
+        <v>0.028650072205477</v>
       </c>
       <c r="I21">
-        <v>0.04330537451403949</v>
+        <v>0.03363762327867104</v>
       </c>
       <c r="J21">
-        <v>0.7591677784299975</v>
+        <v>0.4938204897274687</v>
       </c>
       <c r="K21">
-        <v>1.083458811003567</v>
+        <v>0.7803790187382091</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3097349543172214</v>
       </c>
       <c r="M21">
-        <v>6.685993850079456</v>
+        <v>0.307688247035685</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>6.079001852496049</v>
       </c>
       <c r="P21">
-        <v>0.6529245024293857</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.7849622996132979</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.05783193725560665</v>
+        <v>0.02287049528177754</v>
       </c>
       <c r="D22">
-        <v>0.03288929841029287</v>
+        <v>0.05014923703388519</v>
       </c>
       <c r="E22">
-        <v>2.386374458657968</v>
+        <v>2.358765846547982</v>
       </c>
       <c r="F22">
-        <v>1.531702735699596</v>
+        <v>1.18827960333067</v>
       </c>
       <c r="G22">
-        <v>1.447103772658068</v>
+        <v>1.325338669772663</v>
       </c>
       <c r="H22">
-        <v>0.0373060126028264</v>
+        <v>0.03327512609742955</v>
       </c>
       <c r="I22">
-        <v>0.05009530223922187</v>
+        <v>0.03811740140051167</v>
       </c>
       <c r="J22">
-        <v>0.8005205744419754</v>
+        <v>0.4250668033493099</v>
       </c>
       <c r="K22">
-        <v>1.155441982890139</v>
+        <v>0.8075441217479806</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3095107491529205</v>
       </c>
       <c r="M22">
-        <v>7.191242514443445</v>
+        <v>0.3316323705487036</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>6.475419514167641</v>
       </c>
       <c r="P22">
-        <v>0.6405010252343786</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.7974979580052093</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05568884489649406</v>
+        <v>0.02124828176104643</v>
       </c>
       <c r="D23">
-        <v>0.03231014812153532</v>
+        <v>0.04780669415697503</v>
       </c>
       <c r="E23">
-        <v>2.29654619765256</v>
+        <v>2.271460571185969</v>
       </c>
       <c r="F23">
-        <v>1.482937030666122</v>
+        <v>1.171153184615321</v>
       </c>
       <c r="G23">
-        <v>1.400455063174917</v>
+        <v>1.239494411036674</v>
       </c>
       <c r="H23">
-        <v>0.03441623793276483</v>
+        <v>0.03080892043268291</v>
       </c>
       <c r="I23">
-        <v>0.04626493388239439</v>
+        <v>0.03549570460107798</v>
       </c>
       <c r="J23">
-        <v>0.7805047839389374</v>
+        <v>0.4771026273875663</v>
       </c>
       <c r="K23">
-        <v>1.121296267090116</v>
+        <v>0.7995460897550259</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.311894323256638</v>
       </c>
       <c r="M23">
-        <v>6.92867029889743</v>
+        <v>0.3214720163092224</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>6.279376115003856</v>
       </c>
       <c r="P23">
-        <v>0.6458068817910743</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.7868766510879794</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.04634599140248952</v>
+        <v>0.01567592545435481</v>
       </c>
       <c r="D24">
-        <v>0.03027677999056166</v>
+        <v>0.0408205629660543</v>
       </c>
       <c r="E24">
-        <v>1.959148557946904</v>
+        <v>1.942268277709957</v>
       </c>
       <c r="F24">
-        <v>1.29559781271422</v>
+        <v>1.077249949154293</v>
       </c>
       <c r="G24">
-        <v>1.220190250956108</v>
+        <v>0.9841187749468361</v>
       </c>
       <c r="H24">
-        <v>0.02435037880145918</v>
+        <v>0.02208780412428402</v>
       </c>
       <c r="I24">
-        <v>0.03318346286209728</v>
+        <v>0.0264476302639487</v>
       </c>
       <c r="J24">
-        <v>0.7029761778238992</v>
+        <v>0.6062531505047701</v>
       </c>
       <c r="K24">
-        <v>0.9867857649496159</v>
+        <v>0.7464085480482581</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3129582485128992</v>
       </c>
       <c r="M24">
-        <v>5.926039297892885</v>
+        <v>0.2746492613265659</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>5.473277514227959</v>
       </c>
       <c r="P24">
-        <v>0.6696852543757998</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.7655793308043712</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03654392647892024</v>
+        <v>0.01107689537270851</v>
       </c>
       <c r="D25">
-        <v>0.02799085592516803</v>
+        <v>0.03585212220208334</v>
       </c>
       <c r="E25">
-        <v>1.600421906100252</v>
+        <v>1.589718472220682</v>
       </c>
       <c r="F25">
-        <v>1.099965113332644</v>
+        <v>0.9310879951516853</v>
       </c>
       <c r="G25">
-        <v>1.031947632446958</v>
+        <v>0.8347121056678617</v>
       </c>
       <c r="H25">
-        <v>0.01517184508916569</v>
+        <v>0.01388728537855288</v>
       </c>
       <c r="I25">
-        <v>0.02129414122093998</v>
+        <v>0.01767516474260766</v>
       </c>
       <c r="J25">
-        <v>0.6226102693896252</v>
+        <v>0.5642408755388146</v>
       </c>
       <c r="K25">
-        <v>0.8452335272950506</v>
+        <v>0.656444316947578</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3015067955459827</v>
       </c>
       <c r="M25">
-        <v>4.850410642107249</v>
+        <v>0.2141065984253174</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>4.506105791779419</v>
       </c>
       <c r="P25">
-        <v>0.6987434104534813</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7695969260484148</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
